--- a/exports/yield_files/Jay Test 1.xlsx
+++ b/exports/yield_files/Jay Test 1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -80,25 +80,16 @@
     <t xml:space="preserve">Jay Test 1</t>
   </si>
   <si>
-    <t xml:space="preserve">PLY</t>
+    <t xml:space="preserve">CAS</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1635</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1595</t>
@@ -125,9 +116,6 @@
     <t xml:space="preserve">N18-1620</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
     <t xml:space="preserve">N18-1763</t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t xml:space="preserve">NC-Dunphy</t>
   </si>
   <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
     <t xml:space="preserve">NC-Dilday</t>
   </si>
   <si>
@@ -156,6 +141,24 @@
   </si>
   <si>
     <t xml:space="preserve">N09-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
 </sst>
 </file>
@@ -572,43 +575,23 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>34</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>44.43</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>66.68</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2028.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
       <c r="T2"/>
       <c r="U2" t="n">
-        <v>57.5</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="3">
@@ -631,43 +614,23 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>36</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="P3" t="n">
-        <v>44.52</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>66.58</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2105.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
       <c r="T3"/>
       <c r="U3" t="n">
-        <v>58.1</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="4">
@@ -690,28 +653,20 @@
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>1783.6</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="R4"/>
+      <c r="S4"/>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>57.5</v>
@@ -742,24 +697,18 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>2272</v>
-      </c>
+      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
-        <v>57.9</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="6">
@@ -773,7 +722,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -782,40 +731,20 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" t="n">
-        <v>47</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>36</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22.72</v>
-      </c>
-      <c r="P6" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1821.3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
       <c r="T6"/>
       <c r="U6" t="n">
         <v>57.7</v>
@@ -832,7 +761,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -841,43 +770,23 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" t="n">
-        <v>47</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>35</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="P7" t="n">
-        <v>43.28</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>66.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1883.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>14</v>
-      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
       <c r="T7"/>
       <c r="U7" t="n">
-        <v>58.1</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="8">
@@ -891,7 +800,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -900,31 +809,23 @@
         <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" t="n">
-        <v>2133</v>
-      </c>
-      <c r="S8" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="R8"/>
+      <c r="S8"/>
       <c r="T8"/>
       <c r="U8" t="n">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="9">
@@ -938,7 +839,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -947,29 +848,23 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>25</v>
-      </c>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9" t="n">
-        <v>2040.3</v>
-      </c>
+      <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
-        <v>56.8</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="10">
@@ -983,7 +878,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -992,43 +887,23 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" t="n">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>26</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>22.57</v>
-      </c>
-      <c r="P10" t="n">
-        <v>41.37</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>63.94</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1582.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
       <c r="T10"/>
       <c r="U10" t="n">
-        <v>56.7</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="11">
@@ -1042,7 +917,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -1051,40 +926,20 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" t="n">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>28</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>22.26</v>
-      </c>
-      <c r="P11" t="n">
-        <v>42.66</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>64.92</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2027.2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>12</v>
-      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
       <c r="T11"/>
       <c r="U11" t="n">
         <v>57</v>
@@ -1101,7 +956,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -1110,31 +965,23 @@
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
+      <c r="K12"/>
+      <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12" t="n">
-        <v>1924.9</v>
-      </c>
-      <c r="S12" t="n">
-        <v>12</v>
-      </c>
+      <c r="R12"/>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" t="n">
-        <v>57.9</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="13">
@@ -1148,7 +995,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1157,29 +1004,23 @@
         <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>25</v>
-      </c>
+      <c r="K13"/>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13" t="n">
-        <v>2062.6</v>
-      </c>
+      <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
-        <v>56.7</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="14">
@@ -1193,7 +1034,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1202,43 +1043,23 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" t="n">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>32</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="P14" t="n">
-        <v>48.34</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>68.13</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2161.9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
       <c r="T14"/>
       <c r="U14" t="n">
-        <v>56.9</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="15">
@@ -1252,7 +1073,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1261,43 +1082,23 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" t="n">
-        <v>44</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>32</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>47.51</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>67.68</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2019.5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
       <c r="T15"/>
       <c r="U15" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1112,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1320,31 +1121,23 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
+      <c r="K16"/>
+      <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16" t="n">
-        <v>1759.4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>11.6</v>
-      </c>
+      <c r="R16"/>
+      <c r="S16"/>
       <c r="T16"/>
       <c r="U16" t="n">
-        <v>56.6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -1358,7 +1151,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1367,29 +1160,23 @@
         <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
+      <c r="K17"/>
+      <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" t="n">
-        <v>1942</v>
-      </c>
+      <c r="R17"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17" t="n">
-        <v>57.5</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="18">
@@ -1403,7 +1190,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1412,43 +1199,23 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" t="n">
-        <v>48</v>
-      </c>
-      <c r="K18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" t="n">
-        <v>34</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>22.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>65.56</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2395.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>15.3</v>
-      </c>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
       <c r="T18"/>
       <c r="U18" t="n">
-        <v>55.1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1462,7 +1229,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1471,43 +1238,23 @@
         <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" t="n">
-        <v>47</v>
-      </c>
-      <c r="K19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" t="n">
-        <v>32</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="P19" t="n">
-        <v>44.28</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>65.55</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1836</v>
-      </c>
-      <c r="S19" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
       <c r="T19"/>
       <c r="U19" t="n">
-        <v>55.4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1521,7 +1268,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1530,31 +1277,23 @@
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" t="s">
-        <v>25</v>
-      </c>
+      <c r="K20"/>
+      <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" t="n">
-        <v>1998.4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="R20"/>
+      <c r="S20"/>
       <c r="T20"/>
       <c r="U20" t="n">
-        <v>56.3</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="21">
@@ -1568,7 +1307,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1577,29 +1316,23 @@
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" t="s">
-        <v>25</v>
-      </c>
+      <c r="K21"/>
+      <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21" t="n">
-        <v>2048.2</v>
-      </c>
+      <c r="R21"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="n">
-        <v>56</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="22">
@@ -1613,7 +1346,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1622,43 +1355,23 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" t="n">
-        <v>48</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" t="n">
-        <v>32</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>21.23</v>
-      </c>
-      <c r="P22" t="n">
-        <v>47.76</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>68.99</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1580.8</v>
-      </c>
-      <c r="S22" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
       <c r="T22"/>
       <c r="U22" t="n">
-        <v>55.6</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="23">
@@ -1672,7 +1385,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1681,43 +1394,23 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" t="n">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>35</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="P23" t="n">
-        <v>46.45</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2187</v>
-      </c>
-      <c r="S23" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
       <c r="T23"/>
       <c r="U23" t="n">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="24">
@@ -1731,7 +1424,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1745,26 +1438,18 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24" t="s">
-        <v>24</v>
-      </c>
-      <c r="L24" t="s">
-        <v>25</v>
-      </c>
+      <c r="K24"/>
+      <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" t="n">
-        <v>1855.8</v>
-      </c>
-      <c r="S24" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="R24"/>
+      <c r="S24"/>
       <c r="T24"/>
       <c r="U24" t="n">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="25">
@@ -1778,7 +1463,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1792,24 +1477,18 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
+      <c r="K25"/>
+      <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" t="n">
-        <v>1883.6</v>
-      </c>
+      <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25" t="n">
-        <v>56.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="26">
@@ -1823,7 +1502,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1832,43 +1511,23 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" t="n">
-        <v>49</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" t="n">
-        <v>44</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="P26" t="n">
-        <v>43.34</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>65.95</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1714</v>
-      </c>
-      <c r="S26" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
       <c r="T26"/>
       <c r="U26" t="n">
-        <v>56.1</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="27">
@@ -1882,7 +1541,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1891,43 +1550,23 @@
         <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" t="n">
-        <v>49</v>
-      </c>
-      <c r="K27" t="s">
-        <v>28</v>
-      </c>
-      <c r="L27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" t="n">
-        <v>46</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>42.71</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>65.91</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1425</v>
-      </c>
-      <c r="S27" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
       <c r="T27"/>
       <c r="U27" t="n">
-        <v>56.7</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="28">
@@ -1941,7 +1580,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1950,31 +1589,23 @@
         <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" t="s">
-        <v>25</v>
-      </c>
+      <c r="K28"/>
+      <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28" t="n">
-        <v>1648.6</v>
-      </c>
-      <c r="S28" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="R28"/>
+      <c r="S28"/>
       <c r="T28"/>
       <c r="U28" t="n">
-        <v>55.4</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="29">
@@ -1988,7 +1619,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -1997,29 +1628,23 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" t="s">
-        <v>25</v>
-      </c>
+      <c r="K29"/>
+      <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" t="n">
-        <v>1701.4</v>
-      </c>
+      <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="30">
@@ -2033,7 +1658,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2042,43 +1667,23 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" t="n">
-        <v>45</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" t="n">
-        <v>32</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="P30" t="n">
-        <v>45.85</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1791.2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
       <c r="T30"/>
       <c r="U30" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="31">
@@ -2092,7 +1697,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2101,43 +1706,23 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" t="n">
-        <v>45</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" t="n">
-        <v>31</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="P31" t="n">
-        <v>46.79</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1715.9</v>
-      </c>
-      <c r="S31" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
       <c r="T31"/>
       <c r="U31" t="n">
-        <v>57</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="32">
@@ -2151,7 +1736,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2160,31 +1745,23 @@
         <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
+      <c r="K32"/>
+      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32" t="n">
-        <v>1973.9</v>
-      </c>
-      <c r="S32" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="R32"/>
+      <c r="S32"/>
       <c r="T32"/>
       <c r="U32" t="n">
-        <v>57.5</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="33">
@@ -2198,7 +1775,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2207,29 +1784,23 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" t="s">
-        <v>25</v>
-      </c>
+      <c r="K33"/>
+      <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33" t="n">
-        <v>1642.3</v>
-      </c>
+      <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33" t="n">
-        <v>57.1</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="34">
@@ -2243,7 +1814,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -2252,43 +1823,23 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" t="n">
-        <v>47</v>
-      </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" t="n">
-        <v>26</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>21.49</v>
-      </c>
-      <c r="P34" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>65.58</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1600.7</v>
-      </c>
-      <c r="S34" t="n">
-        <v>13</v>
-      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
       <c r="T34"/>
       <c r="U34" t="n">
-        <v>57.6</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="35">
@@ -2302,7 +1853,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -2311,43 +1862,23 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" t="n">
-        <v>46</v>
-      </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" t="n">
-        <v>28</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>21</v>
-      </c>
-      <c r="P35" t="n">
-        <v>45.64</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>66.64</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1755.9</v>
-      </c>
-      <c r="S35" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
       <c r="T35"/>
       <c r="U35" t="n">
-        <v>58.2</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="36">
@@ -2361,7 +1892,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -2370,31 +1901,23 @@
         <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" t="s">
-        <v>25</v>
-      </c>
+      <c r="K36"/>
+      <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36" t="n">
-        <v>1285.5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="R36"/>
+      <c r="S36"/>
       <c r="T36"/>
       <c r="U36" t="n">
-        <v>56.1</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="37">
@@ -2408,7 +1931,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -2417,29 +1940,23 @@
         <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
+      <c r="K37"/>
+      <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37" t="n">
-        <v>1795.4</v>
-      </c>
+      <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="n">
-        <v>58.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
@@ -2453,7 +1970,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -2462,43 +1979,23 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" t="n">
-        <v>48</v>
-      </c>
-      <c r="K38" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" t="n">
-        <v>30</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O38" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="P38" t="n">
-        <v>46.39</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>68.29</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1455.7</v>
-      </c>
-      <c r="S38" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
       <c r="T38"/>
       <c r="U38" t="n">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="39">
@@ -2512,7 +2009,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -2521,43 +2018,23 @@
         <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" t="n">
-        <v>48</v>
-      </c>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>31</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O39" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="P39" t="n">
-        <v>47.72</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>67.93</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1606.9</v>
-      </c>
-      <c r="S39" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
       <c r="T39"/>
       <c r="U39" t="n">
-        <v>58.3</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="40">
@@ -2571,7 +2048,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2580,31 +2057,23 @@
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" t="s">
-        <v>25</v>
-      </c>
+      <c r="K40"/>
+      <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" t="n">
-        <v>1774.8</v>
-      </c>
-      <c r="S40" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="R40"/>
+      <c r="S40"/>
       <c r="T40"/>
       <c r="U40" t="n">
-        <v>58.3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
@@ -2618,7 +2087,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2627,29 +2096,23 @@
         <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" t="s">
-        <v>25</v>
-      </c>
+      <c r="K41"/>
+      <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41" t="n">
-        <v>2072.8</v>
-      </c>
+      <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="n">
-        <v>57.8</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="42">
@@ -2663,7 +2126,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -2672,43 +2135,23 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" t="n">
-        <v>49</v>
-      </c>
-      <c r="K42" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" t="n">
-        <v>29</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="P42" t="n">
-        <v>43.24</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>65.71</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1905.7</v>
-      </c>
-      <c r="S42" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
       <c r="T42"/>
       <c r="U42" t="n">
-        <v>55.6</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="43">
@@ -2722,7 +2165,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -2731,43 +2174,23 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" t="n">
-        <v>47</v>
-      </c>
-      <c r="K43" t="s">
-        <v>37</v>
-      </c>
-      <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" t="n">
-        <v>29</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>43.17</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>65.27</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2237.8</v>
-      </c>
-      <c r="S43" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
       <c r="T43"/>
       <c r="U43" t="n">
-        <v>56.8</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="44">
@@ -2781,7 +2204,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2790,31 +2213,23 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44" t="s">
-        <v>37</v>
-      </c>
-      <c r="L44" t="s">
-        <v>25</v>
-      </c>
+      <c r="K44"/>
+      <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44" t="n">
-        <v>1790.9</v>
-      </c>
-      <c r="S44" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="R44"/>
+      <c r="S44"/>
       <c r="T44"/>
       <c r="U44" t="n">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="45">
@@ -2828,7 +2243,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2837,29 +2252,23 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L45" t="s">
-        <v>25</v>
-      </c>
+      <c r="K45"/>
+      <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45" t="n">
-        <v>1839.7</v>
-      </c>
+      <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="46">
@@ -2873,7 +2282,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2882,43 +2291,23 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" t="n">
-        <v>46</v>
-      </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" t="n">
-        <v>34</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" t="n">
-        <v>20.97</v>
-      </c>
-      <c r="P46" t="n">
-        <v>46.67</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>67.64</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1840.3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
       <c r="T46"/>
       <c r="U46" t="n">
-        <v>58.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47">
@@ -2932,7 +2321,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
@@ -2941,43 +2330,23 @@
         <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" t="n">
-        <v>44</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" t="n">
-        <v>34</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="P47" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>66.76</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1679</v>
-      </c>
-      <c r="S47" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
       <c r="T47"/>
       <c r="U47" t="n">
-        <v>58.3</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="48">
@@ -2991,7 +2360,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -3000,31 +2369,23 @@
         <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" t="s">
-        <v>25</v>
-      </c>
+      <c r="K48"/>
+      <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" t="n">
-        <v>1753.6</v>
-      </c>
-      <c r="S48" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="R48"/>
+      <c r="S48"/>
       <c r="T48"/>
       <c r="U48" t="n">
-        <v>56.7</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="49">
@@ -3038,7 +2399,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -3047,29 +2408,23 @@
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" t="s">
-        <v>25</v>
-      </c>
+      <c r="K49"/>
+      <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49" t="n">
-        <v>1487.3</v>
-      </c>
+      <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="n">
-        <v>58.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -3083,7 +2438,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3092,43 +2447,23 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50" t="n">
-        <v>47</v>
-      </c>
-      <c r="K50" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" t="n">
-        <v>32</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O50" t="n">
-        <v>21.74</v>
-      </c>
-      <c r="P50" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>66.54</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2100</v>
-      </c>
-      <c r="S50" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
       <c r="T50"/>
       <c r="U50" t="n">
-        <v>56.1</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="51">
@@ -3142,7 +2477,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -3151,43 +2486,23 @@
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51" t="n">
-        <v>47</v>
-      </c>
-      <c r="K51" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" t="n">
-        <v>34</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="P51" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>67.29</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2074.6</v>
-      </c>
-      <c r="S51" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
       <c r="T51"/>
       <c r="U51" t="n">
-        <v>55.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="52">
@@ -3201,7 +2516,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -3210,31 +2525,23 @@
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" t="s">
-        <v>25</v>
-      </c>
+      <c r="K52"/>
+      <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52" t="n">
-        <v>1897.3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="R52"/>
+      <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="n">
-        <v>56.9</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="53">
@@ -3248,7 +2555,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -3257,29 +2564,23 @@
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53" t="s">
-        <v>25</v>
-      </c>
+      <c r="K53"/>
+      <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53" t="n">
-        <v>2168.2</v>
-      </c>
+      <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="n">
-        <v>56.5</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="54">
@@ -3293,7 +2594,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E54" t="n">
         <v>14</v>
@@ -3302,43 +2603,23 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54" t="n">
-        <v>46</v>
-      </c>
-      <c r="K54" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" t="n">
-        <v>33</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="P54" t="n">
-        <v>46.31</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>66.89</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1239.2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
       <c r="T54"/>
       <c r="U54" t="n">
-        <v>56.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="55">
@@ -3352,7 +2633,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -3361,43 +2642,23 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55" t="n">
-        <v>43</v>
-      </c>
-      <c r="K55" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" t="n">
-        <v>31</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O55" t="n">
-        <v>19.89</v>
-      </c>
-      <c r="P55" t="n">
-        <v>46.63</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="R55" t="n">
-        <v>1835.9</v>
-      </c>
-      <c r="S55" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
       <c r="T55"/>
       <c r="U55" t="n">
-        <v>57</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="56">
@@ -3411,7 +2672,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -3420,31 +2681,23 @@
         <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56" t="s">
-        <v>25</v>
-      </c>
+      <c r="K56"/>
+      <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56" t="n">
-        <v>2201.2</v>
-      </c>
-      <c r="S56" t="n">
-        <v>15.9</v>
-      </c>
+      <c r="R56"/>
+      <c r="S56"/>
       <c r="T56"/>
       <c r="U56" t="n">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="57">
@@ -3458,7 +2711,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -3467,29 +2720,23 @@
         <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" t="s">
-        <v>25</v>
-      </c>
+      <c r="K57"/>
+      <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57" t="n">
-        <v>1610.1</v>
-      </c>
+      <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57" t="n">
-        <v>57.4</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="58">
@@ -3503,7 +2750,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -3512,43 +2759,23 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58" t="n">
-        <v>48</v>
-      </c>
-      <c r="K58" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" t="n">
-        <v>31</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="P58" t="n">
-        <v>46.88</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>68.53</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1671.9</v>
-      </c>
-      <c r="S58" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
       <c r="T58"/>
       <c r="U58" t="n">
-        <v>55.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59">
@@ -3562,7 +2789,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -3571,43 +2798,23 @@
         <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59" t="n">
-        <v>45</v>
-      </c>
-      <c r="K59" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" t="n">
-        <v>32</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="P59" t="n">
-        <v>46.99</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>68.23</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2105</v>
-      </c>
-      <c r="S59" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
       <c r="T59"/>
       <c r="U59" t="n">
-        <v>56</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="60">
@@ -3621,7 +2828,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -3630,31 +2837,23 @@
         <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="K60" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" t="s">
-        <v>25</v>
-      </c>
+      <c r="K60"/>
+      <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60" t="n">
-        <v>2076.9</v>
-      </c>
-      <c r="S60" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="R60"/>
+      <c r="S60"/>
       <c r="T60"/>
       <c r="U60" t="n">
-        <v>56.8</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="61">
@@ -3668,7 +2867,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -3677,29 +2876,23 @@
         <v>4</v>
       </c>
       <c r="G61" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61" t="s">
-        <v>24</v>
-      </c>
-      <c r="L61" t="s">
-        <v>25</v>
-      </c>
+      <c r="K61"/>
+      <c r="L61"/>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61" t="n">
-        <v>2073.9</v>
-      </c>
+      <c r="R61"/>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61" t="n">
-        <v>55.9</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="62">
@@ -3713,7 +2906,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -3722,43 +2915,23 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62" t="n">
-        <v>48</v>
-      </c>
-      <c r="K62" t="s">
-        <v>28</v>
-      </c>
-      <c r="L62" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" t="n">
-        <v>24</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="P62" t="n">
-        <v>41.95</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>64.55</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2377.4</v>
-      </c>
-      <c r="S62" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
       <c r="T62"/>
       <c r="U62" t="n">
-        <v>56.7</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="63">
@@ -3772,7 +2945,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -3781,43 +2954,23 @@
         <v>2</v>
       </c>
       <c r="G63" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63" t="n">
-        <v>45</v>
-      </c>
-      <c r="K63" t="s">
-        <v>28</v>
-      </c>
-      <c r="L63" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" t="n">
-        <v>26</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O63" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="P63" t="n">
-        <v>42.32</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>64.12</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2158.3</v>
-      </c>
-      <c r="S63" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
       <c r="T63"/>
       <c r="U63" t="n">
-        <v>56</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="64">
@@ -3831,7 +2984,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -3840,31 +2993,23 @@
         <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64" t="s">
-        <v>28</v>
-      </c>
-      <c r="L64" t="s">
-        <v>43</v>
-      </c>
+      <c r="K64"/>
+      <c r="L64"/>
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64" t="n">
-        <v>1927.9</v>
-      </c>
-      <c r="S64" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="R64"/>
+      <c r="S64"/>
       <c r="T64"/>
       <c r="U64" t="n">
-        <v>55.9</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="65">
@@ -3878,7 +3023,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3887,29 +3032,23 @@
         <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" t="s">
-        <v>43</v>
-      </c>
+      <c r="K65"/>
+      <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65" t="n">
-        <v>2316.4</v>
-      </c>
+      <c r="R65"/>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65" t="n">
-        <v>55.8</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="66">
@@ -3923,7 +3062,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -3932,43 +3071,23 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66" t="n">
-        <v>44</v>
-      </c>
-      <c r="K66" t="s">
-        <v>28</v>
-      </c>
-      <c r="L66" t="s">
-        <v>43</v>
-      </c>
-      <c r="M66" t="n">
-        <v>26</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="P66" t="n">
-        <v>41.12</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>64.29</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1609.7</v>
-      </c>
-      <c r="S66" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
       <c r="T66"/>
       <c r="U66" t="n">
-        <v>57.1</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="67">
@@ -3982,7 +3101,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
@@ -3991,43 +3110,23 @@
         <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67" t="n">
-        <v>46</v>
-      </c>
-      <c r="K67" t="s">
-        <v>28</v>
-      </c>
-      <c r="L67" t="s">
-        <v>43</v>
-      </c>
-      <c r="M67" t="n">
-        <v>25</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="P67" t="n">
-        <v>41.44</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>64.52</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1996.9</v>
-      </c>
-      <c r="S67" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
       <c r="T67"/>
       <c r="U67" t="n">
-        <v>54.6</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="68">
@@ -4041,7 +3140,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -4050,31 +3149,23 @@
         <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" t="s">
-        <v>43</v>
-      </c>
+      <c r="K68"/>
+      <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68" t="n">
-        <v>1880</v>
-      </c>
-      <c r="S68" t="n">
-        <v>16.2</v>
-      </c>
+      <c r="R68"/>
+      <c r="S68"/>
       <c r="T68"/>
       <c r="U68" t="n">
-        <v>56.3</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="69">
@@ -4088,7 +3179,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -4097,29 +3188,23 @@
         <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69" t="s">
-        <v>28</v>
-      </c>
-      <c r="L69" t="s">
-        <v>43</v>
-      </c>
+      <c r="K69"/>
+      <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69" t="n">
-        <v>2355.1</v>
-      </c>
+      <c r="R69"/>
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69" t="n">
-        <v>57.3</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="70">
@@ -4133,7 +3218,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E70" t="n">
         <v>18</v>
@@ -4142,40 +3227,20 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70" t="n">
-        <v>56</v>
-      </c>
-      <c r="K70" t="s">
-        <v>24</v>
-      </c>
-      <c r="L70" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" t="n">
-        <v>34</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O70" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="P70" t="n">
-        <v>39.08</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>63.15</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1346.8</v>
-      </c>
-      <c r="S70" t="n">
-        <v>10.1</v>
-      </c>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
       <c r="T70"/>
       <c r="U70" t="n">
         <v>56.6</v>
@@ -4192,7 +3257,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
@@ -4201,43 +3266,23 @@
         <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" t="n">
-        <v>56</v>
-      </c>
-      <c r="K71" t="s">
-        <v>24</v>
-      </c>
-      <c r="L71" t="s">
-        <v>25</v>
-      </c>
-      <c r="M71" t="n">
-        <v>33</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2</v>
-      </c>
-      <c r="O71" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="P71" t="n">
-        <v>38.96</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>63.24</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1784.1</v>
-      </c>
-      <c r="S71" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
       <c r="T71"/>
       <c r="U71" t="n">
-        <v>56.3</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="72">
@@ -4251,7 +3296,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -4260,31 +3305,23 @@
         <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72" t="s">
-        <v>24</v>
-      </c>
-      <c r="L72" t="s">
-        <v>25</v>
-      </c>
+      <c r="K72"/>
+      <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72" t="n">
-        <v>1676.5</v>
-      </c>
-      <c r="S72" t="n">
-        <v>10.6</v>
-      </c>
+      <c r="R72"/>
+      <c r="S72"/>
       <c r="T72"/>
       <c r="U72" t="n">
-        <v>56.4</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="73">
@@ -4298,7 +3335,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
@@ -4307,29 +3344,23 @@
         <v>4</v>
       </c>
       <c r="G73" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73" t="s">
-        <v>24</v>
-      </c>
-      <c r="L73" t="s">
-        <v>25</v>
-      </c>
+      <c r="K73"/>
+      <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73" t="n">
-        <v>1871.5</v>
-      </c>
+      <c r="R73"/>
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73" t="n">
-        <v>56.3</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="74">
@@ -4343,7 +3374,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E74" t="n">
         <v>19</v>
@@ -4352,43 +3383,23 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74" t="n">
-        <v>44</v>
-      </c>
-      <c r="K74" t="s">
-        <v>28</v>
-      </c>
-      <c r="L74" t="s">
-        <v>25</v>
-      </c>
-      <c r="M74" t="n">
-        <v>34</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O74" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="P74" t="n">
-        <v>50.67</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>69.74</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1783.4</v>
-      </c>
-      <c r="S74" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
       <c r="T74"/>
       <c r="U74" t="n">
-        <v>57.3</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="75">
@@ -4402,7 +3413,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E75" t="n">
         <v>19</v>
@@ -4411,43 +3422,23 @@
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75" t="n">
-        <v>45</v>
-      </c>
-      <c r="K75" t="s">
-        <v>28</v>
-      </c>
-      <c r="L75" t="s">
-        <v>25</v>
-      </c>
-      <c r="M75" t="n">
-        <v>33</v>
-      </c>
-      <c r="N75" t="n">
-        <v>1</v>
-      </c>
-      <c r="O75" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="P75" t="n">
-        <v>50.83</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>69.1</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1093.9</v>
-      </c>
-      <c r="S75" t="n">
-        <v>13</v>
-      </c>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
       <c r="T75"/>
       <c r="U75" t="n">
-        <v>58.1</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="76">
@@ -4461,7 +3452,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
@@ -4470,31 +3461,23 @@
         <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76" t="s">
-        <v>28</v>
-      </c>
-      <c r="L76" t="s">
-        <v>25</v>
-      </c>
+      <c r="K76"/>
+      <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76" t="n">
-        <v>1612.8</v>
-      </c>
-      <c r="S76" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="R76"/>
+      <c r="S76"/>
       <c r="T76"/>
       <c r="U76" t="n">
-        <v>57.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77">
@@ -4508,7 +3491,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
@@ -4517,29 +3500,23 @@
         <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77" t="s">
-        <v>28</v>
-      </c>
-      <c r="L77" t="s">
-        <v>25</v>
-      </c>
+      <c r="K77"/>
+      <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77" t="n">
-        <v>1982.4</v>
-      </c>
+      <c r="R77"/>
       <c r="S77"/>
       <c r="T77"/>
       <c r="U77" t="n">
-        <v>57.9</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="78">
@@ -4553,7 +3530,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E78" t="n">
         <v>20</v>
@@ -4562,43 +3539,23 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78" t="n">
-        <v>51</v>
-      </c>
-      <c r="K78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L78" t="s">
-        <v>43</v>
-      </c>
-      <c r="M78" t="n">
-        <v>35</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="P78" t="n">
-        <v>46.32</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>66.47</v>
-      </c>
-      <c r="R78" t="n">
-        <v>2089.8</v>
-      </c>
-      <c r="S78" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
       <c r="T78"/>
       <c r="U78" t="n">
-        <v>57.4</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="79">
@@ -4612,7 +3569,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -4621,40 +3578,20 @@
         <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79" t="n">
-        <v>51</v>
-      </c>
-      <c r="K79" t="s">
-        <v>28</v>
-      </c>
-      <c r="L79" t="s">
-        <v>43</v>
-      </c>
-      <c r="M79" t="n">
-        <v>36</v>
-      </c>
-      <c r="N79" t="n">
-        <v>1</v>
-      </c>
-      <c r="O79" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="P79" t="n">
-        <v>46.04</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>65.97</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1953.2</v>
-      </c>
-      <c r="S79" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
       <c r="T79"/>
       <c r="U79" t="n">
         <v>56.7</v>
@@ -4671,7 +3608,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -4680,31 +3617,23 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
-      <c r="K80" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" t="s">
-        <v>43</v>
-      </c>
+      <c r="K80"/>
+      <c r="L80"/>
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80" t="n">
-        <v>1855</v>
-      </c>
-      <c r="S80" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="R80"/>
+      <c r="S80"/>
       <c r="T80"/>
       <c r="U80" t="n">
-        <v>57.5</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="81">
@@ -4718,7 +3647,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -4727,28 +3656,4222 @@
         <v>4</v>
       </c>
       <c r="G81" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81" t="s">
-        <v>28</v>
-      </c>
-      <c r="L81" t="s">
-        <v>43</v>
-      </c>
+      <c r="K81"/>
+      <c r="L81"/>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81" t="n">
-        <v>2170.2</v>
-      </c>
+      <c r="R81"/>
       <c r="S81"/>
       <c r="T81"/>
       <c r="U81" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82" t="n">
+        <v>48</v>
+      </c>
+      <c r="K82" t="s">
+        <v>44</v>
+      </c>
+      <c r="L82" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" t="n">
+        <v>34</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O82" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="P82" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>66.68</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2028.3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T82"/>
+      <c r="U82" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="n">
+        <v>33</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83" t="n">
+        <v>47</v>
+      </c>
+      <c r="K83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L83" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" t="n">
+        <v>36</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="P83" t="n">
+        <v>44.52</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2105.5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T83"/>
+      <c r="U83" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>50</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" t="s">
+        <v>45</v>
+      </c>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84" t="n">
+        <v>1783.6</v>
+      </c>
+      <c r="S84" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T84"/>
+      <c r="U84" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="n">
+        <v>76</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L85" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85" t="n">
+        <v>2272</v>
+      </c>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>10</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86" t="n">
+        <v>47</v>
+      </c>
+      <c r="K86" t="s">
+        <v>44</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" t="n">
+        <v>36</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O86" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="P86" t="n">
+        <v>43.58</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1821.3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T86"/>
+      <c r="U86" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>24</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87" t="n">
+        <v>47</v>
+      </c>
+      <c r="K87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" t="n">
+        <v>35</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="P87" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>66.14</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1883.1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>14</v>
+      </c>
+      <c r="T87"/>
+      <c r="U87" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D88" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>45</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88" t="s">
+        <v>44</v>
+      </c>
+      <c r="L88" t="s">
+        <v>45</v>
+      </c>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88" t="n">
+        <v>2133</v>
+      </c>
+      <c r="S88" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T88"/>
+      <c r="U88" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>70</v>
+      </c>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89" t="s">
+        <v>44</v>
+      </c>
+      <c r="L89" t="s">
+        <v>45</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89" t="n">
+        <v>2040.3</v>
+      </c>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>20</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90" t="n">
+        <v>48</v>
+      </c>
+      <c r="K90" t="s">
+        <v>46</v>
+      </c>
+      <c r="L90" t="s">
+        <v>45</v>
+      </c>
+      <c r="M90" t="n">
+        <v>26</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P90" t="n">
+        <v>41.37</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>63.94</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1582.4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T90"/>
+      <c r="U90" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>36</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91" t="n">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>46</v>
+      </c>
+      <c r="L91" t="s">
+        <v>45</v>
+      </c>
+      <c r="M91" t="n">
+        <v>28</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>22.26</v>
+      </c>
+      <c r="P91" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>64.92</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2027.2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>12</v>
+      </c>
+      <c r="T91"/>
+      <c r="U91" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3</v>
+      </c>
+      <c r="G92" t="n">
+        <v>53</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92" t="s">
+        <v>46</v>
+      </c>
+      <c r="L92" t="s">
+        <v>45</v>
+      </c>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92" t="n">
+        <v>1924.9</v>
+      </c>
+      <c r="S92" t="n">
+        <v>12</v>
+      </c>
+      <c r="T92"/>
+      <c r="U92" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>62</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93" t="s">
+        <v>46</v>
+      </c>
+      <c r="L93" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93" t="n">
+        <v>2062.6</v>
+      </c>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" t="n">
+        <v>45</v>
+      </c>
+      <c r="K94" t="s">
+        <v>46</v>
+      </c>
+      <c r="L94" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94" t="n">
+        <v>32</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O94" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="P94" t="n">
+        <v>48.34</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>68.13</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2161.9</v>
+      </c>
+      <c r="S94" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="T94"/>
+      <c r="U94" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>39</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95" t="n">
+        <v>44</v>
+      </c>
+      <c r="K95" t="s">
+        <v>46</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+      <c r="M95" t="n">
+        <v>32</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>20.17</v>
+      </c>
+      <c r="P95" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>67.68</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2019.5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T95"/>
+      <c r="U95" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>52</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96" t="s">
+        <v>46</v>
+      </c>
+      <c r="L96" t="s">
+        <v>45</v>
+      </c>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96" t="n">
+        <v>1759.4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T96"/>
+      <c r="U96" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" t="n">
+        <v>73</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97" t="s">
+        <v>46</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97" t="n">
+        <v>1942</v>
+      </c>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>14</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98" t="n">
+        <v>48</v>
+      </c>
+      <c r="K98" t="s">
+        <v>46</v>
+      </c>
+      <c r="L98" t="s">
+        <v>45</v>
+      </c>
+      <c r="M98" t="n">
+        <v>34</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O98" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="P98" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2395.8</v>
+      </c>
+      <c r="S98" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T98"/>
+      <c r="U98" t="n">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" t="n">
+        <v>32</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99" t="n">
+        <v>47</v>
+      </c>
+      <c r="K99" t="s">
+        <v>46</v>
+      </c>
+      <c r="L99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M99" t="n">
+        <v>32</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O99" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="P99" t="n">
+        <v>44.28</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1836</v>
+      </c>
+      <c r="S99" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T99"/>
+      <c r="U99" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3</v>
+      </c>
+      <c r="G100" t="n">
+        <v>47</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100" t="s">
+        <v>46</v>
+      </c>
+      <c r="L100" t="s">
+        <v>45</v>
+      </c>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100" t="n">
+        <v>1998.4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T100"/>
+      <c r="U100" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4</v>
+      </c>
+      <c r="G101" t="n">
+        <v>71</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101" t="s">
+        <v>46</v>
+      </c>
+      <c r="L101" t="s">
+        <v>45</v>
+      </c>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101" t="n">
+        <v>2048.2</v>
+      </c>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>11</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102" t="n">
+        <v>48</v>
+      </c>
+      <c r="K102" t="s">
+        <v>44</v>
+      </c>
+      <c r="L102" t="s">
+        <v>45</v>
+      </c>
+      <c r="M102" t="n">
+        <v>32</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="P102" t="n">
+        <v>47.76</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>68.99</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1580.8</v>
+      </c>
+      <c r="S102" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T102"/>
+      <c r="U102" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D103" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>31</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103" t="n">
+        <v>46</v>
+      </c>
+      <c r="K103" t="s">
+        <v>44</v>
+      </c>
+      <c r="L103" t="s">
+        <v>45</v>
+      </c>
+      <c r="M103" t="n">
+        <v>35</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="P103" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2187</v>
+      </c>
+      <c r="S103" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T103"/>
+      <c r="U103" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" t="n">
+        <v>60</v>
+      </c>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104" t="s">
+        <v>44</v>
+      </c>
+      <c r="L104" t="s">
+        <v>45</v>
+      </c>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104" t="n">
+        <v>1855.8</v>
+      </c>
+      <c r="S104" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="T104"/>
+      <c r="U104" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4</v>
+      </c>
+      <c r="G105" t="n">
+        <v>72</v>
+      </c>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105" t="s">
+        <v>44</v>
+      </c>
+      <c r="L105" t="s">
+        <v>45</v>
+      </c>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105" t="n">
+        <v>1883.6</v>
+      </c>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106" t="n">
+        <v>49</v>
+      </c>
+      <c r="K106" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" t="s">
+        <v>45</v>
+      </c>
+      <c r="M106" t="n">
+        <v>44</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="P106" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>65.95</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1714</v>
+      </c>
+      <c r="S106" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T106"/>
+      <c r="U106" t="n">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26</v>
+      </c>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107" t="n">
+        <v>49</v>
+      </c>
+      <c r="K107" t="s">
+        <v>46</v>
+      </c>
+      <c r="L107" t="s">
+        <v>45</v>
+      </c>
+      <c r="M107" t="n">
+        <v>46</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="P107" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1425</v>
+      </c>
+      <c r="S107" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T107"/>
+      <c r="U107" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" t="n">
+        <v>44</v>
+      </c>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108" t="s">
+        <v>46</v>
+      </c>
+      <c r="L108" t="s">
+        <v>45</v>
+      </c>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108" t="n">
+        <v>1648.6</v>
+      </c>
+      <c r="S108" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="T108"/>
+      <c r="U108" t="n">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>74</v>
+      </c>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109" t="s">
+        <v>46</v>
+      </c>
+      <c r="L109" t="s">
+        <v>45</v>
+      </c>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109" t="n">
+        <v>1701.4</v>
+      </c>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109" t="n">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>13</v>
+      </c>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110" t="n">
+        <v>45</v>
+      </c>
+      <c r="K110" t="s">
+        <v>46</v>
+      </c>
+      <c r="L110" t="s">
+        <v>45</v>
+      </c>
+      <c r="M110" t="n">
+        <v>32</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="P110" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1791.2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T110"/>
+      <c r="U110" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>23</v>
+      </c>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111" t="n">
+        <v>45</v>
+      </c>
+      <c r="K111" t="s">
+        <v>46</v>
+      </c>
+      <c r="L111" t="s">
+        <v>45</v>
+      </c>
+      <c r="M111" t="n">
+        <v>31</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="P111" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1715.9</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T111"/>
+      <c r="U111" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3</v>
+      </c>
+      <c r="G112" t="n">
+        <v>43</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112" t="s">
+        <v>46</v>
+      </c>
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112" t="n">
+        <v>1973.9</v>
+      </c>
+      <c r="S112" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T112"/>
+      <c r="U112" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D113" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4</v>
+      </c>
+      <c r="G113" t="n">
+        <v>78</v>
+      </c>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113" t="s">
+        <v>46</v>
+      </c>
+      <c r="L113" t="s">
+        <v>45</v>
+      </c>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113" t="n">
+        <v>1642.3</v>
+      </c>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113" t="n">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114" t="n">
+        <v>47</v>
+      </c>
+      <c r="K114" t="s">
+        <v>46</v>
+      </c>
+      <c r="L114" t="s">
+        <v>45</v>
+      </c>
+      <c r="M114" t="n">
+        <v>26</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="P114" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>65.58</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1600.7</v>
+      </c>
+      <c r="S114" t="n">
+        <v>13</v>
+      </c>
+      <c r="T114"/>
+      <c r="U114" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
+        <v>40</v>
+      </c>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115" t="n">
+        <v>46</v>
+      </c>
+      <c r="K115" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" t="s">
+        <v>45</v>
+      </c>
+      <c r="M115" t="n">
+        <v>28</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="n">
+        <v>21</v>
+      </c>
+      <c r="P115" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>66.64</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1755.9</v>
+      </c>
+      <c r="S115" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T115"/>
+      <c r="U115" t="n">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" t="n">
+        <v>57</v>
+      </c>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116" t="s">
+        <v>46</v>
+      </c>
+      <c r="L116" t="s">
+        <v>45</v>
+      </c>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116" t="n">
+        <v>1285.5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T116"/>
+      <c r="U116" t="n">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G117" t="n">
+        <v>79</v>
+      </c>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117" t="s">
+        <v>46</v>
+      </c>
+      <c r="L117" t="s">
+        <v>45</v>
+      </c>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117" t="n">
+        <v>1795.4</v>
+      </c>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12</v>
+      </c>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118" t="n">
+        <v>48</v>
+      </c>
+      <c r="K118" t="s">
+        <v>46</v>
+      </c>
+      <c r="L118" t="s">
+        <v>45</v>
+      </c>
+      <c r="M118" t="n">
+        <v>30</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O118" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="P118" t="n">
+        <v>46.39</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>68.29</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1455.7</v>
+      </c>
+      <c r="S118" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T118"/>
+      <c r="U118" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" t="n">
+        <v>38</v>
+      </c>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119" t="n">
+        <v>48</v>
+      </c>
+      <c r="K119" t="s">
+        <v>46</v>
+      </c>
+      <c r="L119" t="s">
+        <v>45</v>
+      </c>
+      <c r="M119" t="n">
+        <v>31</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O119" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="P119" t="n">
+        <v>47.72</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>67.93</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1606.9</v>
+      </c>
+      <c r="S119" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T119"/>
+      <c r="U119" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3</v>
+      </c>
+      <c r="G120" t="n">
+        <v>58</v>
+      </c>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120" t="s">
+        <v>46</v>
+      </c>
+      <c r="L120" t="s">
+        <v>45</v>
+      </c>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120" t="n">
+        <v>1774.8</v>
+      </c>
+      <c r="S120" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T120"/>
+      <c r="U120" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" t="n">
+        <v>77</v>
+      </c>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121" t="s">
+        <v>46</v>
+      </c>
+      <c r="L121" t="s">
+        <v>45</v>
+      </c>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121" t="n">
+        <v>2072.8</v>
+      </c>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121" t="n">
+        <v>57.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="n">
+        <v>11</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122" t="n">
+        <v>49</v>
+      </c>
+      <c r="K122" t="s">
+        <v>47</v>
+      </c>
+      <c r="L122" t="s">
+        <v>45</v>
+      </c>
+      <c r="M122" t="n">
+        <v>29</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="P122" t="n">
+        <v>43.24</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>65.71</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1905.7</v>
+      </c>
+      <c r="S122" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="T122"/>
+      <c r="U122" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>43</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>25</v>
+      </c>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123" t="n">
+        <v>47</v>
+      </c>
+      <c r="K123" t="s">
+        <v>47</v>
+      </c>
+      <c r="L123" t="s">
+        <v>45</v>
+      </c>
+      <c r="M123" t="n">
+        <v>29</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="P123" t="n">
+        <v>43.17</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>65.27</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2237.8</v>
+      </c>
+      <c r="S123" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T123"/>
+      <c r="U123" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3</v>
+      </c>
+      <c r="G124" t="n">
+        <v>59</v>
+      </c>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124" t="s">
+        <v>47</v>
+      </c>
+      <c r="L124" t="s">
+        <v>45</v>
+      </c>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124" t="n">
+        <v>1790.9</v>
+      </c>
+      <c r="S124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="T124"/>
+      <c r="U124" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4</v>
+      </c>
+      <c r="G125" t="n">
+        <v>69</v>
+      </c>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125" t="s">
+        <v>47</v>
+      </c>
+      <c r="L125" t="s">
+        <v>45</v>
+      </c>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125" t="n">
+        <v>1839.7</v>
+      </c>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>17</v>
+      </c>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126" t="n">
+        <v>46</v>
+      </c>
+      <c r="K126" t="s">
+        <v>46</v>
+      </c>
+      <c r="L126" t="s">
+        <v>45</v>
+      </c>
+      <c r="M126" t="n">
+        <v>34</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="P126" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>67.64</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1840.3</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T126"/>
+      <c r="U126" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D127" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2</v>
+      </c>
+      <c r="G127" t="n">
+        <v>27</v>
+      </c>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127" t="n">
+        <v>44</v>
+      </c>
+      <c r="K127" t="s">
+        <v>46</v>
+      </c>
+      <c r="L127" t="s">
+        <v>45</v>
+      </c>
+      <c r="M127" t="n">
+        <v>34</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O127" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="P127" t="n">
+        <v>47.26</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>66.76</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1679</v>
+      </c>
+      <c r="S127" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="T127"/>
+      <c r="U127" t="n">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3</v>
+      </c>
+      <c r="G128" t="n">
+        <v>56</v>
+      </c>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128" t="s">
+        <v>46</v>
+      </c>
+      <c r="L128" t="s">
+        <v>45</v>
+      </c>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128" t="n">
+        <v>1753.6</v>
+      </c>
+      <c r="S128" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T128"/>
+      <c r="U128" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4</v>
+      </c>
+      <c r="G129" t="n">
+        <v>68</v>
+      </c>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129" t="s">
+        <v>46</v>
+      </c>
+      <c r="L129" t="s">
+        <v>45</v>
+      </c>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129" t="n">
+        <v>1487.3</v>
+      </c>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129" t="n">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>8</v>
+      </c>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130" t="n">
+        <v>47</v>
+      </c>
+      <c r="K130" t="s">
+        <v>44</v>
+      </c>
+      <c r="L130" t="s">
+        <v>45</v>
+      </c>
+      <c r="M130" t="n">
+        <v>32</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O130" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="P130" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>66.54</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2100</v>
+      </c>
+      <c r="S130" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T130"/>
+      <c r="U130" t="n">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2</v>
+      </c>
+      <c r="G131" t="n">
+        <v>22</v>
+      </c>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131" t="n">
+        <v>47</v>
+      </c>
+      <c r="K131" t="s">
+        <v>44</v>
+      </c>
+      <c r="L131" t="s">
+        <v>45</v>
+      </c>
+      <c r="M131" t="n">
+        <v>34</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="P131" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>67.29</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2074.6</v>
+      </c>
+      <c r="S131" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T131"/>
+      <c r="U131" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
+      <c r="G132" t="n">
+        <v>51</v>
+      </c>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132" t="s">
+        <v>44</v>
+      </c>
+      <c r="L132" t="s">
+        <v>45</v>
+      </c>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132" t="n">
+        <v>1897.3</v>
+      </c>
+      <c r="S132" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T132"/>
+      <c r="U132" t="n">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4</v>
+      </c>
+      <c r="G133" t="n">
+        <v>61</v>
+      </c>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133" t="s">
+        <v>44</v>
+      </c>
+      <c r="L133" t="s">
+        <v>45</v>
+      </c>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133" t="n">
+        <v>2168.2</v>
+      </c>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D134" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>19</v>
+      </c>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134" t="n">
+        <v>46</v>
+      </c>
+      <c r="K134" t="s">
+        <v>44</v>
+      </c>
+      <c r="L134" t="s">
+        <v>45</v>
+      </c>
+      <c r="M134" t="n">
+        <v>33</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="P134" t="n">
+        <v>46.31</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>66.89</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1239.2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T134"/>
+      <c r="U134" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" t="n">
+        <v>28</v>
+      </c>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135" t="n">
+        <v>43</v>
+      </c>
+      <c r="K135" t="s">
+        <v>44</v>
+      </c>
+      <c r="L135" t="s">
+        <v>45</v>
+      </c>
+      <c r="M135" t="n">
+        <v>31</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O135" t="n">
+        <v>19.89</v>
+      </c>
+      <c r="P135" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>66.52</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1835.9</v>
+      </c>
+      <c r="S135" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T135"/>
+      <c r="U135" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3</v>
+      </c>
+      <c r="G136" t="n">
+        <v>55</v>
+      </c>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136" t="s">
+        <v>44</v>
+      </c>
+      <c r="L136" t="s">
+        <v>45</v>
+      </c>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136" t="n">
+        <v>2201.2</v>
+      </c>
+      <c r="S136" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T136"/>
+      <c r="U136" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4</v>
+      </c>
+      <c r="G137" t="n">
+        <v>63</v>
+      </c>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137" t="s">
+        <v>44</v>
+      </c>
+      <c r="L137" t="s">
+        <v>45</v>
+      </c>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137" t="n">
+        <v>1610.1</v>
+      </c>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>43</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D138" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138" t="n">
+        <v>48</v>
+      </c>
+      <c r="K138" t="s">
+        <v>44</v>
+      </c>
+      <c r="L138" t="s">
+        <v>45</v>
+      </c>
+      <c r="M138" t="n">
+        <v>31</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="P138" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>68.53</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1671.9</v>
+      </c>
+      <c r="S138" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T138"/>
+      <c r="U138" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>43</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>35</v>
+      </c>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139" t="n">
+        <v>45</v>
+      </c>
+      <c r="K139" t="s">
+        <v>44</v>
+      </c>
+      <c r="L139" t="s">
+        <v>45</v>
+      </c>
+      <c r="M139" t="n">
+        <v>32</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="P139" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>68.23</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2105</v>
+      </c>
+      <c r="S139" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T139"/>
+      <c r="U139" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" t="n">
+        <v>46</v>
+      </c>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140" t="s">
+        <v>44</v>
+      </c>
+      <c r="L140" t="s">
+        <v>45</v>
+      </c>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140" t="n">
+        <v>2076.9</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T140"/>
+      <c r="U140" t="n">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4</v>
+      </c>
+      <c r="G141" t="n">
+        <v>65</v>
+      </c>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141" t="s">
+        <v>44</v>
+      </c>
+      <c r="L141" t="s">
+        <v>45</v>
+      </c>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141" t="n">
+        <v>2073.9</v>
+      </c>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D142" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" t="n">
+        <v>16</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>16</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142" t="n">
+        <v>48</v>
+      </c>
+      <c r="K142" t="s">
+        <v>46</v>
+      </c>
+      <c r="L142" t="s">
+        <v>48</v>
+      </c>
+      <c r="M142" t="n">
+        <v>24</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P142" t="n">
+        <v>41.95</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>64.55</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2377.4</v>
+      </c>
+      <c r="S142" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="T142"/>
+      <c r="U142" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" t="n">
+        <v>16</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="n">
+        <v>34</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143" t="n">
+        <v>45</v>
+      </c>
+      <c r="K143" t="s">
+        <v>46</v>
+      </c>
+      <c r="L143" t="s">
+        <v>48</v>
+      </c>
+      <c r="M143" t="n">
+        <v>26</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O143" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="P143" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>64.12</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2158.3</v>
+      </c>
+      <c r="S143" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="T143"/>
+      <c r="U143" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D144" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3</v>
+      </c>
+      <c r="G144" t="n">
+        <v>54</v>
+      </c>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144" t="s">
+        <v>46</v>
+      </c>
+      <c r="L144" t="s">
+        <v>48</v>
+      </c>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144" t="n">
+        <v>1927.9</v>
+      </c>
+      <c r="S144" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T144"/>
+      <c r="U144" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>43</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>64</v>
+      </c>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145" t="s">
+        <v>46</v>
+      </c>
+      <c r="L145" t="s">
+        <v>48</v>
+      </c>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145" t="n">
+        <v>2316.4</v>
+      </c>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145" t="n">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>43</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D146" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" t="n">
+        <v>17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>18</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146" t="n">
+        <v>44</v>
+      </c>
+      <c r="K146" t="s">
+        <v>46</v>
+      </c>
+      <c r="L146" t="s">
+        <v>48</v>
+      </c>
+      <c r="M146" t="n">
+        <v>26</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+      <c r="O146" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="P146" t="n">
+        <v>41.12</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>64.29</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1609.7</v>
+      </c>
+      <c r="S146" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T146"/>
+      <c r="U146" t="n">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" t="n">
+        <v>17</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>29</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147" t="n">
+        <v>46</v>
+      </c>
+      <c r="K147" t="s">
+        <v>46</v>
+      </c>
+      <c r="L147" t="s">
+        <v>48</v>
+      </c>
+      <c r="M147" t="n">
+        <v>25</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="P147" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1996.9</v>
+      </c>
+      <c r="S147" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T147"/>
+      <c r="U147" t="n">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" t="n">
+        <v>17</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="n">
+        <v>42</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148" t="s">
+        <v>46</v>
+      </c>
+      <c r="L148" t="s">
+        <v>48</v>
+      </c>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148" t="n">
+        <v>1880</v>
+      </c>
+      <c r="S148" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="T148"/>
+      <c r="U148" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D149" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>17</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4</v>
+      </c>
+      <c r="G149" t="n">
+        <v>75</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149" t="s">
+        <v>46</v>
+      </c>
+      <c r="L149" t="s">
+        <v>48</v>
+      </c>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149" t="n">
+        <v>2355.1</v>
+      </c>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>21</v>
+      </c>
+      <c r="B150" t="s">
+        <v>43</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" t="n">
+        <v>18</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>9</v>
+      </c>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150" t="n">
+        <v>56</v>
+      </c>
+      <c r="K150" t="s">
+        <v>44</v>
+      </c>
+      <c r="L150" t="s">
+        <v>45</v>
+      </c>
+      <c r="M150" t="n">
+        <v>34</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O150" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="P150" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>63.15</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1346.8</v>
+      </c>
+      <c r="S150" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="T150"/>
+      <c r="U150" t="n">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D151" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151" t="n">
+        <v>18</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>37</v>
+      </c>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151" t="n">
+        <v>56</v>
+      </c>
+      <c r="K151" t="s">
+        <v>44</v>
+      </c>
+      <c r="L151" t="s">
+        <v>45</v>
+      </c>
+      <c r="M151" t="n">
+        <v>33</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="P151" t="n">
+        <v>38.96</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>63.24</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1784.1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T151"/>
+      <c r="U151" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D152" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" t="n">
+        <v>18</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3</v>
+      </c>
+      <c r="G152" t="n">
+        <v>49</v>
+      </c>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152" t="s">
+        <v>44</v>
+      </c>
+      <c r="L152" t="s">
+        <v>45</v>
+      </c>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152" t="n">
+        <v>1676.5</v>
+      </c>
+      <c r="S152" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="T152"/>
+      <c r="U152" t="n">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D153" t="s">
+        <v>40</v>
+      </c>
+      <c r="E153" t="n">
+        <v>18</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="n">
+        <v>67</v>
+      </c>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153" t="s">
+        <v>44</v>
+      </c>
+      <c r="L153" t="s">
+        <v>45</v>
+      </c>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153" t="n">
+        <v>1871.5</v>
+      </c>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153" t="n">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>21</v>
+      </c>
+      <c r="B154" t="s">
+        <v>43</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D154" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" t="n">
+        <v>19</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7</v>
+      </c>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154" t="n">
+        <v>44</v>
+      </c>
+      <c r="K154" t="s">
+        <v>46</v>
+      </c>
+      <c r="L154" t="s">
+        <v>45</v>
+      </c>
+      <c r="M154" t="n">
+        <v>34</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O154" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="P154" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>69.74</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1783.4</v>
+      </c>
+      <c r="S154" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T154"/>
+      <c r="U154" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>21</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" t="n">
+        <v>19</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" t="n">
+        <v>21</v>
+      </c>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155" t="n">
+        <v>45</v>
+      </c>
+      <c r="K155" t="s">
+        <v>46</v>
+      </c>
+      <c r="L155" t="s">
+        <v>45</v>
+      </c>
+      <c r="M155" t="n">
+        <v>33</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="P155" t="n">
+        <v>50.83</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>69.1</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1093.9</v>
+      </c>
+      <c r="S155" t="n">
+        <v>13</v>
+      </c>
+      <c r="T155"/>
+      <c r="U155" t="n">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D156" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3</v>
+      </c>
+      <c r="G156" t="n">
+        <v>41</v>
+      </c>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156" t="s">
+        <v>46</v>
+      </c>
+      <c r="L156" t="s">
+        <v>45</v>
+      </c>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156" t="n">
+        <v>1612.8</v>
+      </c>
+      <c r="S156" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T156"/>
+      <c r="U156" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="n">
+        <v>19</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4</v>
+      </c>
+      <c r="G157" t="n">
+        <v>80</v>
+      </c>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157" t="s">
+        <v>46</v>
+      </c>
+      <c r="L157" t="s">
+        <v>45</v>
+      </c>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157" t="n">
+        <v>1982.4</v>
+      </c>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157" t="n">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" t="s">
+        <v>43</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D158" t="s">
+        <v>42</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>15</v>
+      </c>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158" t="n">
+        <v>51</v>
+      </c>
+      <c r="K158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L158" t="s">
+        <v>48</v>
+      </c>
+      <c r="M158" t="n">
+        <v>35</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="P158" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>66.47</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2089.8</v>
+      </c>
+      <c r="S158" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T158"/>
+      <c r="U158" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D159" t="s">
+        <v>42</v>
+      </c>
+      <c r="E159" t="n">
+        <v>20</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2</v>
+      </c>
+      <c r="G159" t="n">
+        <v>30</v>
+      </c>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159" t="n">
+        <v>51</v>
+      </c>
+      <c r="K159" t="s">
+        <v>46</v>
+      </c>
+      <c r="L159" t="s">
+        <v>48</v>
+      </c>
+      <c r="M159" t="n">
+        <v>36</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="P159" t="n">
+        <v>46.04</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>65.97</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1953.2</v>
+      </c>
+      <c r="S159" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T159"/>
+      <c r="U159" t="n">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" t="s">
+        <v>43</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D160" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" t="n">
+        <v>20</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3</v>
+      </c>
+      <c r="G160" t="n">
+        <v>48</v>
+      </c>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160" t="s">
+        <v>46</v>
+      </c>
+      <c r="L160" t="s">
+        <v>48</v>
+      </c>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160" t="n">
+        <v>1855</v>
+      </c>
+      <c r="S160" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T160"/>
+      <c r="U160" t="n">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E161" t="n">
+        <v>20</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4</v>
+      </c>
+      <c r="G161" t="n">
+        <v>66</v>
+      </c>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161" t="s">
+        <v>46</v>
+      </c>
+      <c r="L161" t="s">
+        <v>48</v>
+      </c>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161" t="n">
+        <v>2170.2</v>
+      </c>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161" t="n">
         <v>56.3</v>
       </c>
     </row>

--- a/exports/yield_files/Jay Test 1.xlsx
+++ b/exports/yield_files/Jay Test 1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -86,10 +86,19 @@
     <t xml:space="preserve">N18-1674</t>
   </si>
   <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
     <t xml:space="preserve">N18-1635</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">N18-1595</t>
@@ -116,6 +125,9 @@
     <t xml:space="preserve">N18-1620</t>
   </si>
   <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">N18-1763</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">NC-Dunphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">NC-Dilday</t>
@@ -149,16 +164,10 @@
     <t xml:space="preserve">w</t>
   </si>
   <si>
-    <t xml:space="preserve">t</t>
-  </si>
-  <si>
     <t xml:space="preserve">p</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
   </si>
 </sst>
 </file>
@@ -579,17 +588,33 @@
       </c>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
+      <c r="J2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>40</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>2876.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U2" t="n">
         <v>57.6</v>
       </c>
@@ -618,17 +643,33 @@
       </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
+      <c r="J3" t="n">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>42</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="R3" t="n">
+        <v>2491.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U3" t="n">
         <v>57.2</v>
       </c>
@@ -658,15 +699,25 @@
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="R4" t="n">
+        <v>2455.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15.9</v>
+      </c>
       <c r="T4"/>
       <c r="U4" t="n">
         <v>57.5</v>
@@ -697,14 +748,20 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5"/>
+      <c r="R5" t="n">
+        <v>2265.4</v>
+      </c>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5" t="n">
@@ -722,7 +779,7 @@
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -735,17 +792,33 @@
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="J6" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>34</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>2660.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>16</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U6" t="n">
         <v>57.7</v>
       </c>
@@ -761,7 +834,7 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -774,17 +847,33 @@
       </c>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>40</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>2531.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U7" t="n">
         <v>58.3</v>
       </c>
@@ -800,7 +889,7 @@
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -814,15 +903,25 @@
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>40</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
+      <c r="R8" t="n">
+        <v>2565.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T8"/>
       <c r="U8" t="n">
         <v>57.8</v>
@@ -839,7 +938,7 @@
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -853,14 +952,20 @@
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
-      <c r="R9"/>
+      <c r="R9" t="n">
+        <v>2771.3</v>
+      </c>
       <c r="S9"/>
       <c r="T9"/>
       <c r="U9" t="n">
@@ -878,7 +983,7 @@
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -891,17 +996,33 @@
       </c>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
+      <c r="J10" t="n">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>40</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="R10" t="n">
+        <v>2381.8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U10" t="n">
         <v>57.5</v>
       </c>
@@ -917,7 +1038,7 @@
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -930,17 +1051,33 @@
       </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
+      <c r="J11" t="n">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="n">
+        <v>38</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+      <c r="R11" t="n">
+        <v>2384.1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U11" t="n">
         <v>57</v>
       </c>
@@ -956,7 +1093,7 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -970,15 +1107,25 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>38</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
+      <c r="R12" t="n">
+        <v>2584.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T12"/>
       <c r="U12" t="n">
         <v>57.5</v>
@@ -995,7 +1142,7 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1009,14 +1156,20 @@
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
-      <c r="R13"/>
+      <c r="R13" t="n">
+        <v>2294.5</v>
+      </c>
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13" t="n">
@@ -1034,7 +1187,7 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -1047,17 +1200,33 @@
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+      <c r="J14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>36</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+      <c r="R14" t="n">
+        <v>2513.6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U14" t="n">
         <v>56.8</v>
       </c>
@@ -1073,7 +1242,7 @@
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1086,17 +1255,33 @@
       </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="J15" t="n">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>36</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+      <c r="R15" t="n">
+        <v>2561.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U15" t="n">
         <v>56.8</v>
       </c>
@@ -1112,7 +1297,7 @@
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -1126,15 +1311,25 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="n">
+        <v>34</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
+      <c r="R16" t="n">
+        <v>2568.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>14.1</v>
+      </c>
       <c r="T16"/>
       <c r="U16" t="n">
         <v>57</v>
@@ -1151,7 +1346,7 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1165,14 +1360,20 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17"/>
+      <c r="R17" t="n">
+        <v>2427</v>
+      </c>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17" t="n">
@@ -1190,7 +1391,7 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1203,17 +1404,33 @@
       </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
+      <c r="J18" t="n">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>38</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>2548.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U18" t="n">
         <v>56</v>
       </c>
@@ -1229,7 +1446,7 @@
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1242,17 +1459,33 @@
       </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>42</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+      <c r="R19" t="n">
+        <v>2754.6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U19" t="n">
         <v>56</v>
       </c>
@@ -1268,7 +1501,7 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1282,15 +1515,25 @@
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>36</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
+      <c r="R20" t="n">
+        <v>2653.7</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15.6</v>
+      </c>
       <c r="T20"/>
       <c r="U20" t="n">
         <v>55.6</v>
@@ -1307,7 +1550,7 @@
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1321,14 +1564,20 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
-      <c r="R21"/>
+      <c r="R21" t="n">
+        <v>2383.2</v>
+      </c>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21" t="n">
@@ -1346,7 +1595,7 @@
         <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -1359,17 +1608,33 @@
       </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>41</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>2620.6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U22" t="n">
         <v>56.2</v>
       </c>
@@ -1385,7 +1650,7 @@
         <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -1398,17 +1663,33 @@
       </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
+      <c r="J23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="n">
+        <v>36</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="R23" t="n">
+        <v>2878.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U23" t="n">
         <v>56.1</v>
       </c>
@@ -1424,7 +1705,7 @@
         <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -1438,15 +1719,25 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+      <c r="K24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>40</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
+      <c r="R24" t="n">
+        <v>2774.1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>16.2</v>
+      </c>
       <c r="T24"/>
       <c r="U24" t="n">
         <v>56.3</v>
@@ -1463,7 +1754,7 @@
         <v>2021</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -1477,14 +1768,20 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25"/>
+      <c r="R25" t="n">
+        <v>2669.9</v>
+      </c>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25" t="n">
@@ -1502,7 +1799,7 @@
         <v>2021</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
@@ -1515,17 +1812,33 @@
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
+      <c r="J26" t="n">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>42</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>2359.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U26" t="n">
         <v>55.4</v>
       </c>
@@ -1541,7 +1854,7 @@
         <v>2021</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -1554,17 +1867,33 @@
       </c>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
+      <c r="J27" t="n">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>42</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>2376.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U27" t="n">
         <v>55.7</v>
       </c>
@@ -1580,7 +1909,7 @@
         <v>2021</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1594,15 +1923,25 @@
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="n">
+        <v>44</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
+      <c r="R28" t="n">
+        <v>2064.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>16.9</v>
+      </c>
       <c r="T28"/>
       <c r="U28" t="n">
         <v>55.8</v>
@@ -1619,7 +1958,7 @@
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
@@ -1633,14 +1972,20 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="n">
+        <v>2029.9</v>
+      </c>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
@@ -1658,7 +2003,7 @@
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -1671,17 +2016,33 @@
       </c>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
+      <c r="J30" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>42</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+      <c r="R30" t="n">
+        <v>2313.1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U30" t="n">
         <v>56.4</v>
       </c>
@@ -1697,7 +2058,7 @@
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1710,17 +2071,33 @@
       </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
+      <c r="J31" t="n">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>44</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2</v>
+      </c>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+      <c r="R31" t="n">
+        <v>1601.1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U31" t="n">
         <v>56.1</v>
       </c>
@@ -1736,7 +2113,7 @@
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -1750,15 +2127,25 @@
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>42</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
+      <c r="R32" t="n">
+        <v>2660.6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>16.3</v>
+      </c>
       <c r="T32"/>
       <c r="U32" t="n">
         <v>56.2</v>
@@ -1775,7 +2162,7 @@
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1789,14 +2176,20 @@
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
+      <c r="R33" t="n">
+        <v>2246.3</v>
+      </c>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33" t="n">
@@ -1814,7 +2207,7 @@
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
@@ -1827,17 +2220,33 @@
       </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="J34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>34</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
+      <c r="R34" t="n">
+        <v>2491.1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U34" t="n">
         <v>57.9</v>
       </c>
@@ -1853,7 +2262,7 @@
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E35" t="n">
         <v>9</v>
@@ -1866,17 +2275,33 @@
       </c>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
+      <c r="J35" t="n">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>38</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>2807.3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U35" t="n">
         <v>57.8</v>
       </c>
@@ -1892,7 +2317,7 @@
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E36" t="n">
         <v>9</v>
@@ -1906,15 +2331,25 @@
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>38</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
+      <c r="R36" t="n">
+        <v>2617</v>
+      </c>
+      <c r="S36" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T36"/>
       <c r="U36" t="n">
         <v>57.3</v>
@@ -1931,7 +2366,7 @@
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E37" t="n">
         <v>9</v>
@@ -1945,14 +2380,20 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="n">
+        <v>2946.7</v>
+      </c>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37" t="n">
@@ -1970,7 +2411,7 @@
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1983,17 +2424,33 @@
       </c>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
+      <c r="J38" t="n">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>40</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="n">
+        <v>2407</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
       <c r="U38" t="n">
         <v>57.9</v>
       </c>
@@ -2009,7 +2466,7 @@
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -2022,17 +2479,33 @@
       </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
+      <c r="J39" t="n">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>41</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="R39" t="n">
+        <v>2326.5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U39" t="n">
         <v>57.5</v>
       </c>
@@ -2048,7 +2521,7 @@
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -2062,15 +2535,25 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>40</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="R40" t="n">
+        <v>2186.6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>17.6</v>
+      </c>
       <c r="T40"/>
       <c r="U40" t="n">
         <v>58</v>
@@ -2087,7 +2570,7 @@
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -2101,14 +2584,20 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>25</v>
+      </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41"/>
+      <c r="R41" t="n">
+        <v>2172.2</v>
+      </c>
       <c r="S41"/>
       <c r="T41"/>
       <c r="U41" t="n">
@@ -2126,7 +2615,7 @@
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -2139,17 +2628,33 @@
       </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
+      <c r="J42" t="n">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" t="n">
+        <v>38</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
+      <c r="R42" t="n">
+        <v>2848.1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U42" t="n">
         <v>56.5</v>
       </c>
@@ -2165,7 +2670,7 @@
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -2178,17 +2683,33 @@
       </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
+      <c r="J43" t="n">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>40</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="n">
+        <v>2865.1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U43" t="n">
         <v>56.5</v>
       </c>
@@ -2204,7 +2725,7 @@
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -2218,15 +2739,25 @@
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
+      <c r="K44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>38</v>
+      </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
+      <c r="R44" t="n">
+        <v>2686.6</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13.7</v>
+      </c>
       <c r="T44"/>
       <c r="U44" t="n">
         <v>56.3</v>
@@ -2243,7 +2774,7 @@
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -2257,14 +2788,20 @@
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="K45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
-      <c r="R45"/>
+      <c r="R45" t="n">
+        <v>2932.7</v>
+      </c>
       <c r="S45"/>
       <c r="T45"/>
       <c r="U45" t="n">
@@ -2282,7 +2819,7 @@
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E46" t="n">
         <v>12</v>
@@ -2295,17 +2832,33 @@
       </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="J46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="n">
+        <v>39</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="R46" t="n">
+        <v>2336.1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U46" t="n">
         <v>58</v>
       </c>
@@ -2321,7 +2874,7 @@
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
         <v>12</v>
@@ -2334,17 +2887,33 @@
       </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
+      <c r="J47" t="n">
+        <v>21</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="n">
+        <v>38</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="n">
+        <v>2711.7</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U47" t="n">
         <v>57.9</v>
       </c>
@@ -2360,7 +2929,7 @@
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E48" t="n">
         <v>12</v>
@@ -2374,15 +2943,25 @@
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>42</v>
+      </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
+      <c r="R48" t="n">
+        <v>2500.2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T48"/>
       <c r="U48" t="n">
         <v>58.5</v>
@@ -2399,7 +2978,7 @@
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E49" t="n">
         <v>12</v>
@@ -2413,14 +2992,20 @@
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>25</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
-      <c r="R49"/>
+      <c r="R49" t="n">
+        <v>2249.9</v>
+      </c>
       <c r="S49"/>
       <c r="T49"/>
       <c r="U49" t="n">
@@ -2438,7 +3023,7 @@
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -2451,17 +3036,33 @@
       </c>
       <c r="H50"/>
       <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
+      <c r="J50" t="n">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>38</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
+      <c r="R50" t="n">
+        <v>2661.8</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U50" t="n">
         <v>56.3</v>
       </c>
@@ -2477,7 +3078,7 @@
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -2490,17 +3091,33 @@
       </c>
       <c r="H51"/>
       <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+      <c r="J51" t="n">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" t="n">
+        <v>38</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
+      <c r="R51" t="n">
+        <v>2900.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U51" t="n">
         <v>56.4</v>
       </c>
@@ -2516,7 +3133,7 @@
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -2530,15 +3147,25 @@
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
+      <c r="K52" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" t="n">
+        <v>38</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
+      <c r="R52" t="n">
+        <v>2626.2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14.6</v>
+      </c>
       <c r="T52"/>
       <c r="U52" t="n">
         <v>56.3</v>
@@ -2555,7 +3182,7 @@
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -2569,14 +3196,20 @@
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="K53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" t="s">
+        <v>25</v>
+      </c>
       <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
-      <c r="R53"/>
+      <c r="R53" t="n">
+        <v>2643.3</v>
+      </c>
       <c r="S53"/>
       <c r="T53"/>
       <c r="U53" t="n">
@@ -2594,7 +3227,7 @@
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E54" t="n">
         <v>14</v>
@@ -2607,17 +3240,33 @@
       </c>
       <c r="H54"/>
       <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
+      <c r="J54" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>40</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="n">
+        <v>2335.1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2</v>
+      </c>
       <c r="U54" t="n">
         <v>56.3</v>
       </c>
@@ -2633,7 +3282,7 @@
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -2646,17 +3295,33 @@
       </c>
       <c r="H55"/>
       <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
+      <c r="J55" t="n">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>24</v>
+      </c>
+      <c r="L55" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" t="n">
+        <v>40</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="R55" t="n">
+        <v>2591.1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>17</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U55" t="n">
         <v>55.8</v>
       </c>
@@ -2672,7 +3337,7 @@
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E56" t="n">
         <v>14</v>
@@ -2686,15 +3351,25 @@
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="K56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>42</v>
+      </c>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
+      <c r="R56" t="n">
+        <v>2391.6</v>
+      </c>
+      <c r="S56" t="n">
+        <v>17.5</v>
+      </c>
       <c r="T56"/>
       <c r="U56" t="n">
         <v>56.2</v>
@@ -2711,7 +3386,7 @@
         <v>2021</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E57" t="n">
         <v>14</v>
@@ -2725,14 +3400,20 @@
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" t="s">
+        <v>25</v>
+      </c>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57"/>
+      <c r="R57" t="n">
+        <v>2403.3</v>
+      </c>
       <c r="S57"/>
       <c r="T57"/>
       <c r="U57" t="n">
@@ -2750,7 +3431,7 @@
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E58" t="n">
         <v>15</v>
@@ -2763,17 +3444,33 @@
       </c>
       <c r="H58"/>
       <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
+      <c r="J58" t="n">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" t="n">
+        <v>40</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
+      <c r="R58" t="n">
+        <v>2861.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U58" t="n">
         <v>56</v>
       </c>
@@ -2789,7 +3486,7 @@
         <v>2021</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E59" t="n">
         <v>15</v>
@@ -2802,17 +3499,33 @@
       </c>
       <c r="H59"/>
       <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
+      <c r="J59" t="n">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>36</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="n">
+        <v>2820.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U59" t="n">
         <v>55.7</v>
       </c>
@@ -2828,7 +3541,7 @@
         <v>2021</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E60" t="n">
         <v>15</v>
@@ -2842,15 +3555,25 @@
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+      <c r="K60" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>38</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
+      <c r="R60" t="n">
+        <v>2535.4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>14.7</v>
+      </c>
       <c r="T60"/>
       <c r="U60" t="n">
         <v>55.8</v>
@@ -2867,7 +3590,7 @@
         <v>2021</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E61" t="n">
         <v>15</v>
@@ -2881,14 +3604,20 @@
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" t="s">
+        <v>25</v>
+      </c>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61"/>
+      <c r="R61" t="n">
+        <v>2840.5</v>
+      </c>
       <c r="S61"/>
       <c r="T61"/>
       <c r="U61" t="n">
@@ -2906,7 +3635,7 @@
         <v>2021</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -2919,17 +3648,33 @@
       </c>
       <c r="H62"/>
       <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
+      <c r="J62" t="n">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" t="n">
+        <v>34</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="n">
+        <v>2666.7</v>
+      </c>
+      <c r="S62" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U62" t="n">
         <v>54.7</v>
       </c>
@@ -2945,7 +3690,7 @@
         <v>2021</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E63" t="n">
         <v>16</v>
@@ -2958,17 +3703,33 @@
       </c>
       <c r="H63"/>
       <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="J63" t="n">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" t="n">
+        <v>36</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="n">
+        <v>2898.4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U63" t="n">
         <v>54.9</v>
       </c>
@@ -2984,7 +3745,7 @@
         <v>2021</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E64" t="n">
         <v>16</v>
@@ -2998,15 +3759,25 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
+      <c r="K64" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" t="s">
+        <v>43</v>
+      </c>
+      <c r="M64" t="n">
+        <v>36</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
+      <c r="R64" t="n">
+        <v>2688.5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>14.9</v>
+      </c>
       <c r="T64"/>
       <c r="U64" t="n">
         <v>54.7</v>
@@ -3023,7 +3794,7 @@
         <v>2021</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E65" t="n">
         <v>16</v>
@@ -3037,14 +3808,20 @@
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
+      <c r="K65" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" t="s">
+        <v>43</v>
+      </c>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65"/>
+      <c r="R65" t="n">
+        <v>2201.5</v>
+      </c>
       <c r="S65"/>
       <c r="T65"/>
       <c r="U65" t="n">
@@ -3062,7 +3839,7 @@
         <v>2021</v>
       </c>
       <c r="D66" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E66" t="n">
         <v>17</v>
@@ -3075,17 +3852,33 @@
       </c>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
+      <c r="J66" t="n">
+        <v>22</v>
+      </c>
+      <c r="K66" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66" t="s">
+        <v>43</v>
+      </c>
+      <c r="M66" t="n">
+        <v>36</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="n">
+        <v>2835.3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U66" t="n">
         <v>56.7</v>
       </c>
@@ -3101,7 +3894,7 @@
         <v>2021</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E67" t="n">
         <v>17</v>
@@ -3114,17 +3907,33 @@
       </c>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
+      <c r="J67" t="n">
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" t="s">
+        <v>43</v>
+      </c>
+      <c r="M67" t="n">
+        <v>40</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
+      <c r="R67" t="n">
+        <v>2670.2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U67" t="n">
         <v>56.4</v>
       </c>
@@ -3140,7 +3949,7 @@
         <v>2021</v>
       </c>
       <c r="D68" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E68" t="n">
         <v>17</v>
@@ -3154,15 +3963,25 @@
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
+      <c r="K68" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" t="s">
+        <v>43</v>
+      </c>
+      <c r="M68" t="n">
+        <v>36</v>
+      </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
+      <c r="R68" t="n">
+        <v>3085.7</v>
+      </c>
+      <c r="S68" t="n">
+        <v>16.6</v>
+      </c>
       <c r="T68"/>
       <c r="U68" t="n">
         <v>57.1</v>
@@ -3179,7 +3998,7 @@
         <v>2021</v>
       </c>
       <c r="D69" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E69" t="n">
         <v>17</v>
@@ -3193,14 +4012,20 @@
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
+      <c r="K69" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" t="s">
+        <v>43</v>
+      </c>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69"/>
+      <c r="R69" t="n">
+        <v>2659.5</v>
+      </c>
       <c r="S69"/>
       <c r="T69"/>
       <c r="U69" t="n">
@@ -3218,7 +4043,7 @@
         <v>2021</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E70" t="n">
         <v>18</v>
@@ -3231,17 +4056,33 @@
       </c>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
+      <c r="J70" t="n">
+        <v>26</v>
+      </c>
+      <c r="K70" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" t="n">
+        <v>42</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
+      <c r="R70" t="n">
+        <v>2259.8</v>
+      </c>
+      <c r="S70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U70" t="n">
         <v>56.6</v>
       </c>
@@ -3257,7 +4098,7 @@
         <v>2021</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71" t="n">
         <v>18</v>
@@ -3270,17 +4111,33 @@
       </c>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
+      <c r="J71" t="n">
+        <v>26</v>
+      </c>
+      <c r="K71" t="s">
+        <v>24</v>
+      </c>
+      <c r="L71" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" t="n">
+        <v>40</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="n">
+        <v>2285.4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U71" t="n">
         <v>56.8</v>
       </c>
@@ -3296,7 +4153,7 @@
         <v>2021</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E72" t="n">
         <v>18</v>
@@ -3310,15 +4167,25 @@
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
+      <c r="K72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" t="n">
+        <v>43</v>
+      </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
+      <c r="R72" t="n">
+        <v>2338</v>
+      </c>
+      <c r="S72" t="n">
+        <v>11.7</v>
+      </c>
       <c r="T72"/>
       <c r="U72" t="n">
         <v>57.1</v>
@@ -3335,7 +4202,7 @@
         <v>2021</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E73" t="n">
         <v>18</v>
@@ -3349,14 +4216,20 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
+      <c r="K73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L73" t="s">
+        <v>25</v>
+      </c>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
+      <c r="R73" t="n">
+        <v>2401.9</v>
+      </c>
       <c r="S73"/>
       <c r="T73"/>
       <c r="U73" t="n">
@@ -3374,7 +4247,7 @@
         <v>2021</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E74" t="n">
         <v>19</v>
@@ -3387,17 +4260,33 @@
       </c>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
+      <c r="J74" t="n">
+        <v>20</v>
+      </c>
+      <c r="K74" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" t="n">
+        <v>42</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2</v>
+      </c>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
+      <c r="R74" t="n">
+        <v>2058.9</v>
+      </c>
+      <c r="S74" t="n">
+        <v>17</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U74" t="n">
         <v>56.8</v>
       </c>
@@ -3413,7 +4302,7 @@
         <v>2021</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E75" t="n">
         <v>19</v>
@@ -3426,17 +4315,33 @@
       </c>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
+      <c r="J75" t="n">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M75" t="n">
+        <v>39</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.5</v>
+      </c>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
+      <c r="R75" t="n">
+        <v>2423.1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>17</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U75" t="n">
         <v>57.5</v>
       </c>
@@ -3452,7 +4357,7 @@
         <v>2021</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E76" t="n">
         <v>19</v>
@@ -3466,15 +4371,25 @@
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
+      <c r="K76" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" t="n">
+        <v>40</v>
+      </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
+      <c r="R76" t="n">
+        <v>2230.3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>16.4</v>
+      </c>
       <c r="T76"/>
       <c r="U76" t="n">
         <v>57</v>
@@ -3491,7 +4406,7 @@
         <v>2021</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
         <v>19</v>
@@ -3505,14 +4420,20 @@
       <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
+      <c r="K77" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77"/>
+      <c r="R77" t="n">
+        <v>2197.7</v>
+      </c>
       <c r="S77"/>
       <c r="T77"/>
       <c r="U77" t="n">
@@ -3530,7 +4451,7 @@
         <v>2021</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E78" t="n">
         <v>20</v>
@@ -3543,17 +4464,33 @@
       </c>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
+      <c r="J78" t="n">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" t="s">
+        <v>43</v>
+      </c>
+      <c r="M78" t="n">
+        <v>38</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
+      <c r="R78" t="n">
+        <v>2179.2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U78" t="n">
         <v>56.7</v>
       </c>
@@ -3569,7 +4506,7 @@
         <v>2021</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E79" t="n">
         <v>20</v>
@@ -3582,17 +4519,33 @@
       </c>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
+      <c r="J79" t="n">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" t="s">
+        <v>43</v>
+      </c>
+      <c r="M79" t="n">
+        <v>40</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.5</v>
+      </c>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
+      <c r="R79" t="n">
+        <v>1996.1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>15</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U79" t="n">
         <v>56.7</v>
       </c>
@@ -3608,7 +4561,7 @@
         <v>2021</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E80" t="n">
         <v>20</v>
@@ -3622,15 +4575,25 @@
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
+      <c r="K80" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" t="s">
+        <v>43</v>
+      </c>
+      <c r="M80" t="n">
+        <v>44</v>
+      </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
+      <c r="R80" t="n">
+        <v>2036.5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>17</v>
+      </c>
       <c r="T80"/>
       <c r="U80" t="n">
         <v>56.2</v>
@@ -3647,7 +4610,7 @@
         <v>2021</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E81" t="n">
         <v>20</v>
@@ -3661,14 +4624,20 @@
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="K81" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" t="s">
+        <v>43</v>
+      </c>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81"/>
+      <c r="R81" t="n">
+        <v>2300.2</v>
+      </c>
       <c r="S81"/>
       <c r="T81"/>
       <c r="U81" t="n">
@@ -3680,7 +4649,7 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C82" t="n">
         <v>2021</v>
@@ -3700,13 +4669,13 @@
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K82" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L82" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M82" t="n">
         <v>34</v>
@@ -3729,7 +4698,9 @@
       <c r="S82" t="n">
         <v>14.3</v>
       </c>
-      <c r="T82"/>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
       <c r="U82" t="n">
         <v>57.5</v>
       </c>
@@ -3739,7 +4710,7 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" t="n">
         <v>2021</v>
@@ -3759,13 +4730,13 @@
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L83" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M83" t="n">
         <v>36</v>
@@ -3788,7 +4759,9 @@
       <c r="S83" t="n">
         <v>12.7</v>
       </c>
-      <c r="T83"/>
+      <c r="T83" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U83" t="n">
         <v>58.1</v>
       </c>
@@ -3798,7 +4771,7 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" t="n">
         <v>2021</v>
@@ -3819,10 +4792,10 @@
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L84" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M84"/>
       <c r="N84"/>
@@ -3845,7 +4818,7 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C85" t="n">
         <v>2021</v>
@@ -3866,10 +4839,10 @@
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L85" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M85"/>
       <c r="N85"/>
@@ -3890,13 +4863,13 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C86" t="n">
         <v>2021</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -3910,13 +4883,13 @@
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L86" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M86" t="n">
         <v>36</v>
@@ -3939,7 +4912,9 @@
       <c r="S86" t="n">
         <v>13.3</v>
       </c>
-      <c r="T86"/>
+      <c r="T86" t="n">
+        <v>1</v>
+      </c>
       <c r="U86" t="n">
         <v>57.7</v>
       </c>
@@ -3949,13 +4924,13 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C87" t="n">
         <v>2021</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -3969,13 +4944,13 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L87" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M87" t="n">
         <v>35</v>
@@ -3998,7 +4973,9 @@
       <c r="S87" t="n">
         <v>14</v>
       </c>
-      <c r="T87"/>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
       <c r="U87" t="n">
         <v>58.1</v>
       </c>
@@ -4008,13 +4985,13 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C88" t="n">
         <v>2021</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -4029,10 +5006,10 @@
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L88" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M88"/>
       <c r="N88"/>
@@ -4055,13 +5032,13 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C89" t="n">
         <v>2021</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -4076,10 +5053,10 @@
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L89" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M89"/>
       <c r="N89"/>
@@ -4100,13 +5077,13 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C90" t="n">
         <v>2021</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
@@ -4120,13 +5097,13 @@
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L90" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M90" t="n">
         <v>26</v>
@@ -4149,7 +5126,9 @@
       <c r="S90" t="n">
         <v>12.5</v>
       </c>
-      <c r="T90"/>
+      <c r="T90" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U90" t="n">
         <v>56.7</v>
       </c>
@@ -4159,13 +5138,13 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C91" t="n">
         <v>2021</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E91" t="n">
         <v>3</v>
@@ -4179,13 +5158,13 @@
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L91" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M91" t="n">
         <v>28</v>
@@ -4208,7 +5187,9 @@
       <c r="S91" t="n">
         <v>12</v>
       </c>
-      <c r="T91"/>
+      <c r="T91" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U91" t="n">
         <v>57</v>
       </c>
@@ -4218,13 +5199,13 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" t="n">
         <v>2021</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -4239,10 +5220,10 @@
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L92" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M92"/>
       <c r="N92"/>
@@ -4265,13 +5246,13 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C93" t="n">
         <v>2021</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
@@ -4286,10 +5267,10 @@
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L93" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M93"/>
       <c r="N93"/>
@@ -4310,13 +5291,13 @@
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
         <v>2021</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E94" t="n">
         <v>4</v>
@@ -4330,13 +5311,13 @@
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K94" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L94" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M94" t="n">
         <v>32</v>
@@ -4359,7 +5340,9 @@
       <c r="S94" t="n">
         <v>12.8</v>
       </c>
-      <c r="T94"/>
+      <c r="T94" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U94" t="n">
         <v>56.9</v>
       </c>
@@ -4369,13 +5352,13 @@
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C95" t="n">
         <v>2021</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -4389,13 +5372,13 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L95" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M95" t="n">
         <v>32</v>
@@ -4418,7 +5401,9 @@
       <c r="S95" t="n">
         <v>13.3</v>
       </c>
-      <c r="T95"/>
+      <c r="T95" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U95" t="n">
         <v>56.6</v>
       </c>
@@ -4428,13 +5413,13 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C96" t="n">
         <v>2021</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -4449,10 +5434,10 @@
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L96" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M96"/>
       <c r="N96"/>
@@ -4475,13 +5460,13 @@
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C97" t="n">
         <v>2021</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E97" t="n">
         <v>4</v>
@@ -4496,10 +5481,10 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L97" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M97"/>
       <c r="N97"/>
@@ -4520,13 +5505,13 @@
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C98" t="n">
         <v>2021</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -4540,13 +5525,13 @@
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K98" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L98" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M98" t="n">
         <v>34</v>
@@ -4569,7 +5554,9 @@
       <c r="S98" t="n">
         <v>15.3</v>
       </c>
-      <c r="T98"/>
+      <c r="T98" t="n">
+        <v>1</v>
+      </c>
       <c r="U98" t="n">
         <v>55.1</v>
       </c>
@@ -4579,13 +5566,13 @@
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C99" t="n">
         <v>2021</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -4599,13 +5586,13 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L99" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M99" t="n">
         <v>32</v>
@@ -4628,7 +5615,9 @@
       <c r="S99" t="n">
         <v>12.7</v>
       </c>
-      <c r="T99"/>
+      <c r="T99" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U99" t="n">
         <v>55.4</v>
       </c>
@@ -4638,13 +5627,13 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C100" t="n">
         <v>2021</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -4659,10 +5648,10 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L100" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M100"/>
       <c r="N100"/>
@@ -4685,13 +5674,13 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C101" t="n">
         <v>2021</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -4706,10 +5695,10 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L101" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M101"/>
       <c r="N101"/>
@@ -4730,13 +5719,13 @@
         <v>21</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C102" t="n">
         <v>2021</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E102" t="n">
         <v>6</v>
@@ -4750,13 +5739,13 @@
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K102" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L102" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M102" t="n">
         <v>32</v>
@@ -4779,7 +5768,9 @@
       <c r="S102" t="n">
         <v>12.9</v>
       </c>
-      <c r="T102"/>
+      <c r="T102" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U102" t="n">
         <v>55.6</v>
       </c>
@@ -4789,13 +5780,13 @@
         <v>21</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C103" t="n">
         <v>2021</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E103" t="n">
         <v>6</v>
@@ -4809,13 +5800,13 @@
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K103" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L103" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M103" t="n">
         <v>35</v>
@@ -4838,7 +5829,9 @@
       <c r="S103" t="n">
         <v>12.6</v>
       </c>
-      <c r="T103"/>
+      <c r="T103" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U103" t="n">
         <v>56.4</v>
       </c>
@@ -4848,13 +5841,13 @@
         <v>21</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C104" t="n">
         <v>2021</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -4869,10 +5862,10 @@
       <c r="I104"/>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L104" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M104"/>
       <c r="N104"/>
@@ -4895,13 +5888,13 @@
         <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C105" t="n">
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -4916,10 +5909,10 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L105" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M105"/>
       <c r="N105"/>
@@ -4940,13 +5933,13 @@
         <v>21</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C106" t="n">
         <v>2021</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E106" t="n">
         <v>7</v>
@@ -4960,13 +5953,13 @@
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K106" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L106" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M106" t="n">
         <v>44</v>
@@ -4989,7 +5982,9 @@
       <c r="S106" t="n">
         <v>13.1</v>
       </c>
-      <c r="T106"/>
+      <c r="T106" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U106" t="n">
         <v>56.1</v>
       </c>
@@ -4999,13 +5994,13 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C107" t="n">
         <v>2021</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E107" t="n">
         <v>7</v>
@@ -5019,13 +6014,13 @@
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K107" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L107" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M107" t="n">
         <v>46</v>
@@ -5048,7 +6043,9 @@
       <c r="S107" t="n">
         <v>13.7</v>
       </c>
-      <c r="T107"/>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
       <c r="U107" t="n">
         <v>56.7</v>
       </c>
@@ -5058,13 +6055,13 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C108" t="n">
         <v>2021</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E108" t="n">
         <v>7</v>
@@ -5079,10 +6076,10 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L108" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M108"/>
       <c r="N108"/>
@@ -5105,13 +6102,13 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C109" t="n">
         <v>2021</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E109" t="n">
         <v>7</v>
@@ -5126,10 +6123,10 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L109" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M109"/>
       <c r="N109"/>
@@ -5150,13 +6147,13 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C110" t="n">
         <v>2021</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -5170,13 +6167,13 @@
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K110" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L110" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M110" t="n">
         <v>32</v>
@@ -5199,7 +6196,9 @@
       <c r="S110" t="n">
         <v>14.7</v>
       </c>
-      <c r="T110"/>
+      <c r="T110" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U110" t="n">
         <v>56</v>
       </c>
@@ -5209,13 +6208,13 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C111" t="n">
         <v>2021</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -5229,13 +6228,13 @@
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K111" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L111" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M111" t="n">
         <v>31</v>
@@ -5258,7 +6257,9 @@
       <c r="S111" t="n">
         <v>13.5</v>
       </c>
-      <c r="T111"/>
+      <c r="T111" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U111" t="n">
         <v>57</v>
       </c>
@@ -5268,13 +6269,13 @@
         <v>21</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C112" t="n">
         <v>2021</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -5289,10 +6290,10 @@
       <c r="I112"/>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L112" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M112"/>
       <c r="N112"/>
@@ -5315,13 +6316,13 @@
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C113" t="n">
         <v>2021</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -5336,10 +6337,10 @@
       <c r="I113"/>
       <c r="J113"/>
       <c r="K113" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L113" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M113"/>
       <c r="N113"/>
@@ -5360,13 +6361,13 @@
         <v>21</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C114" t="n">
         <v>2021</v>
       </c>
       <c r="D114" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E114" t="n">
         <v>9</v>
@@ -5380,13 +6381,13 @@
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L114" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M114" t="n">
         <v>26</v>
@@ -5409,7 +6410,9 @@
       <c r="S114" t="n">
         <v>13</v>
       </c>
-      <c r="T114"/>
+      <c r="T114" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U114" t="n">
         <v>57.6</v>
       </c>
@@ -5419,13 +6422,13 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C115" t="n">
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E115" t="n">
         <v>9</v>
@@ -5439,13 +6442,13 @@
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K115" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L115" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M115" t="n">
         <v>28</v>
@@ -5468,7 +6471,9 @@
       <c r="S115" t="n">
         <v>12.7</v>
       </c>
-      <c r="T115"/>
+      <c r="T115" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U115" t="n">
         <v>58.2</v>
       </c>
@@ -5478,13 +6483,13 @@
         <v>21</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C116" t="n">
         <v>2021</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E116" t="n">
         <v>9</v>
@@ -5499,10 +6504,10 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L116" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M116"/>
       <c r="N116"/>
@@ -5525,13 +6530,13 @@
         <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
         <v>2021</v>
       </c>
       <c r="D117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E117" t="n">
         <v>9</v>
@@ -5546,10 +6551,10 @@
       <c r="I117"/>
       <c r="J117"/>
       <c r="K117" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L117" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M117"/>
       <c r="N117"/>
@@ -5570,13 +6575,13 @@
         <v>21</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C118" t="n">
         <v>2021</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -5590,13 +6595,13 @@
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K118" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L118" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M118" t="n">
         <v>30</v>
@@ -5619,7 +6624,9 @@
       <c r="S118" t="n">
         <v>14.6</v>
       </c>
-      <c r="T118"/>
+      <c r="T118" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U118" t="n">
         <v>58.1</v>
       </c>
@@ -5629,13 +6636,13 @@
         <v>21</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
         <v>2021</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -5649,13 +6656,13 @@
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K119" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L119" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M119" t="n">
         <v>31</v>
@@ -5678,7 +6685,9 @@
       <c r="S119" t="n">
         <v>13.7</v>
       </c>
-      <c r="T119"/>
+      <c r="T119" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U119" t="n">
         <v>58.3</v>
       </c>
@@ -5688,13 +6697,13 @@
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C120" t="n">
         <v>2021</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -5709,10 +6718,10 @@
       <c r="I120"/>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L120" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M120"/>
       <c r="N120"/>
@@ -5735,13 +6744,13 @@
         <v>21</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C121" t="n">
         <v>2021</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -5756,10 +6765,10 @@
       <c r="I121"/>
       <c r="J121"/>
       <c r="K121" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L121" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M121"/>
       <c r="N121"/>
@@ -5780,13 +6789,13 @@
         <v>21</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C122" t="n">
         <v>2021</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E122" t="n">
         <v>11</v>
@@ -5800,13 +6809,13 @@
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="K122" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L122" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M122" t="n">
         <v>29</v>
@@ -5829,7 +6838,9 @@
       <c r="S122" t="n">
         <v>12.2</v>
       </c>
-      <c r="T122"/>
+      <c r="T122" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U122" t="n">
         <v>55.6</v>
       </c>
@@ -5839,13 +6850,13 @@
         <v>21</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C123" t="n">
         <v>2021</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E123" t="n">
         <v>11</v>
@@ -5859,13 +6870,13 @@
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K123" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L123" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M123" t="n">
         <v>29</v>
@@ -5888,7 +6899,9 @@
       <c r="S123" t="n">
         <v>13.2</v>
       </c>
-      <c r="T123"/>
+      <c r="T123" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U123" t="n">
         <v>56.8</v>
       </c>
@@ -5898,13 +6911,13 @@
         <v>21</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C124" t="n">
         <v>2021</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E124" t="n">
         <v>11</v>
@@ -5919,10 +6932,10 @@
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L124" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M124"/>
       <c r="N124"/>
@@ -5945,13 +6958,13 @@
         <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C125" t="n">
         <v>2021</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E125" t="n">
         <v>11</v>
@@ -5966,10 +6979,10 @@
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L125" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M125"/>
       <c r="N125"/>
@@ -5990,13 +7003,13 @@
         <v>21</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C126" t="n">
         <v>2021</v>
       </c>
       <c r="D126" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E126" t="n">
         <v>12</v>
@@ -6010,13 +7023,13 @@
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K126" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L126" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M126" t="n">
         <v>34</v>
@@ -6039,7 +7052,9 @@
       <c r="S126" t="n">
         <v>11.4</v>
       </c>
-      <c r="T126"/>
+      <c r="T126" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U126" t="n">
         <v>58.5</v>
       </c>
@@ -6049,13 +7064,13 @@
         <v>21</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C127" t="n">
         <v>2021</v>
       </c>
       <c r="D127" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E127" t="n">
         <v>12</v>
@@ -6069,13 +7084,13 @@
       <c r="H127"/>
       <c r="I127"/>
       <c r="J127" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K127" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L127" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M127" t="n">
         <v>34</v>
@@ -6098,7 +7113,9 @@
       <c r="S127" t="n">
         <v>10.7</v>
       </c>
-      <c r="T127"/>
+      <c r="T127" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U127" t="n">
         <v>58.3</v>
       </c>
@@ -6108,13 +7125,13 @@
         <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E128" t="n">
         <v>12</v>
@@ -6129,10 +7146,10 @@
       <c r="I128"/>
       <c r="J128"/>
       <c r="K128" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L128" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M128"/>
       <c r="N128"/>
@@ -6155,13 +7172,13 @@
         <v>21</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E129" t="n">
         <v>12</v>
@@ -6176,10 +7193,10 @@
       <c r="I129"/>
       <c r="J129"/>
       <c r="K129" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L129" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M129"/>
       <c r="N129"/>
@@ -6200,13 +7217,13 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -6220,13 +7237,13 @@
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K130" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L130" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M130" t="n">
         <v>32</v>
@@ -6249,7 +7266,9 @@
       <c r="S130" t="n">
         <v>12.7</v>
       </c>
-      <c r="T130"/>
+      <c r="T130" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U130" t="n">
         <v>56.1</v>
       </c>
@@ -6259,13 +7278,13 @@
         <v>21</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C131" t="n">
         <v>2021</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -6279,13 +7298,13 @@
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K131" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L131" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M131" t="n">
         <v>34</v>
@@ -6308,7 +7327,9 @@
       <c r="S131" t="n">
         <v>13.2</v>
       </c>
-      <c r="T131"/>
+      <c r="T131" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U131" t="n">
         <v>55.6</v>
       </c>
@@ -6318,13 +7339,13 @@
         <v>21</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C132" t="n">
         <v>2021</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -6339,10 +7360,10 @@
       <c r="I132"/>
       <c r="J132"/>
       <c r="K132" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L132" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M132"/>
       <c r="N132"/>
@@ -6365,13 +7386,13 @@
         <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C133" t="n">
         <v>2021</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -6386,10 +7407,10 @@
       <c r="I133"/>
       <c r="J133"/>
       <c r="K133" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L133" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M133"/>
       <c r="N133"/>
@@ -6410,13 +7431,13 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C134" t="n">
         <v>2021</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E134" t="n">
         <v>14</v>
@@ -6430,13 +7451,13 @@
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K134" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L134" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M134" t="n">
         <v>33</v>
@@ -6459,7 +7480,9 @@
       <c r="S134" t="n">
         <v>14.1</v>
       </c>
-      <c r="T134"/>
+      <c r="T134" t="n">
+        <v>1</v>
+      </c>
       <c r="U134" t="n">
         <v>56.5</v>
       </c>
@@ -6469,13 +7492,13 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C135" t="n">
         <v>2021</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -6489,13 +7512,13 @@
       <c r="H135"/>
       <c r="I135"/>
       <c r="J135" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K135" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L135" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M135" t="n">
         <v>31</v>
@@ -6518,7 +7541,9 @@
       <c r="S135" t="n">
         <v>13.2</v>
       </c>
-      <c r="T135"/>
+      <c r="T135" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U135" t="n">
         <v>57</v>
       </c>
@@ -6528,13 +7553,13 @@
         <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C136" t="n">
         <v>2021</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E136" t="n">
         <v>14</v>
@@ -6549,10 +7574,10 @@
       <c r="I136"/>
       <c r="J136"/>
       <c r="K136" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L136" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M136"/>
       <c r="N136"/>
@@ -6575,13 +7600,13 @@
         <v>21</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C137" t="n">
         <v>2021</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E137" t="n">
         <v>14</v>
@@ -6596,10 +7621,10 @@
       <c r="I137"/>
       <c r="J137"/>
       <c r="K137" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L137" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M137"/>
       <c r="N137"/>
@@ -6620,13 +7645,13 @@
         <v>21</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C138" t="n">
         <v>2021</v>
       </c>
       <c r="D138" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E138" t="n">
         <v>15</v>
@@ -6640,13 +7665,13 @@
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K138" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L138" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M138" t="n">
         <v>31</v>
@@ -6669,7 +7694,9 @@
       <c r="S138" t="n">
         <v>12.4</v>
       </c>
-      <c r="T138"/>
+      <c r="T138" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U138" t="n">
         <v>55.6</v>
       </c>
@@ -6679,13 +7706,13 @@
         <v>21</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C139" t="n">
         <v>2021</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E139" t="n">
         <v>15</v>
@@ -6699,13 +7726,13 @@
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K139" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L139" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M139" t="n">
         <v>32</v>
@@ -6728,7 +7755,9 @@
       <c r="S139" t="n">
         <v>12.9</v>
       </c>
-      <c r="T139"/>
+      <c r="T139" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U139" t="n">
         <v>56</v>
       </c>
@@ -6738,13 +7767,13 @@
         <v>21</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C140" t="n">
         <v>2021</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E140" t="n">
         <v>15</v>
@@ -6759,10 +7788,10 @@
       <c r="I140"/>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L140" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M140"/>
       <c r="N140"/>
@@ -6785,13 +7814,13 @@
         <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C141" t="n">
         <v>2021</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E141" t="n">
         <v>15</v>
@@ -6806,10 +7835,10 @@
       <c r="I141"/>
       <c r="J141"/>
       <c r="K141" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L141" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M141"/>
       <c r="N141"/>
@@ -6830,13 +7859,13 @@
         <v>21</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
       </c>
       <c r="D142" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
@@ -6850,13 +7879,13 @@
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="K142" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L142" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M142" t="n">
         <v>24</v>
@@ -6879,7 +7908,9 @@
       <c r="S142" t="n">
         <v>14.2</v>
       </c>
-      <c r="T142"/>
+      <c r="T142" t="n">
+        <v>1</v>
+      </c>
       <c r="U142" t="n">
         <v>56.7</v>
       </c>
@@ -6889,13 +7920,13 @@
         <v>21</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
       </c>
       <c r="D143" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E143" t="n">
         <v>16</v>
@@ -6909,13 +7940,13 @@
       <c r="H143"/>
       <c r="I143"/>
       <c r="J143" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K143" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L143" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M143" t="n">
         <v>26</v>
@@ -6938,7 +7969,9 @@
       <c r="S143" t="n">
         <v>13.8</v>
       </c>
-      <c r="T143"/>
+      <c r="T143" t="n">
+        <v>1</v>
+      </c>
       <c r="U143" t="n">
         <v>56</v>
       </c>
@@ -6948,13 +7981,13 @@
         <v>21</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C144" t="n">
         <v>2021</v>
       </c>
       <c r="D144" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E144" t="n">
         <v>16</v>
@@ -6969,10 +8002,10 @@
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L144" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M144"/>
       <c r="N144"/>
@@ -6995,13 +8028,13 @@
         <v>21</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C145" t="n">
         <v>2021</v>
       </c>
       <c r="D145" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E145" t="n">
         <v>16</v>
@@ -7016,10 +8049,10 @@
       <c r="I145"/>
       <c r="J145"/>
       <c r="K145" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L145" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M145"/>
       <c r="N145"/>
@@ -7040,13 +8073,13 @@
         <v>21</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C146" t="n">
         <v>2021</v>
       </c>
       <c r="D146" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E146" t="n">
         <v>17</v>
@@ -7060,13 +8093,13 @@
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K146" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L146" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M146" t="n">
         <v>26</v>
@@ -7089,7 +8122,9 @@
       <c r="S146" t="n">
         <v>14.8</v>
       </c>
-      <c r="T146"/>
+      <c r="T146" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U146" t="n">
         <v>57.1</v>
       </c>
@@ -7099,13 +8134,13 @@
         <v>21</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C147" t="n">
         <v>2021</v>
       </c>
       <c r="D147" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E147" t="n">
         <v>17</v>
@@ -7119,13 +8154,13 @@
       <c r="H147"/>
       <c r="I147"/>
       <c r="J147" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="K147" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L147" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M147" t="n">
         <v>25</v>
@@ -7148,7 +8183,9 @@
       <c r="S147" t="n">
         <v>15.5</v>
       </c>
-      <c r="T147"/>
+      <c r="T147" t="n">
+        <v>1</v>
+      </c>
       <c r="U147" t="n">
         <v>54.6</v>
       </c>
@@ -7158,13 +8195,13 @@
         <v>21</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C148" t="n">
         <v>2021</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E148" t="n">
         <v>17</v>
@@ -7179,10 +8216,10 @@
       <c r="I148"/>
       <c r="J148"/>
       <c r="K148" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L148" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M148"/>
       <c r="N148"/>
@@ -7205,13 +8242,13 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C149" t="n">
         <v>2021</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E149" t="n">
         <v>17</v>
@@ -7226,10 +8263,10 @@
       <c r="I149"/>
       <c r="J149"/>
       <c r="K149" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L149" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M149"/>
       <c r="N149"/>
@@ -7250,13 +8287,13 @@
         <v>21</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
         <v>18</v>
@@ -7270,13 +8307,13 @@
       <c r="H150"/>
       <c r="I150"/>
       <c r="J150" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="K150" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L150" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M150" t="n">
         <v>34</v>
@@ -7299,7 +8336,9 @@
       <c r="S150" t="n">
         <v>10.1</v>
       </c>
-      <c r="T150"/>
+      <c r="T150" t="n">
+        <v>1</v>
+      </c>
       <c r="U150" t="n">
         <v>56.6</v>
       </c>
@@ -7309,13 +8348,13 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C151" t="n">
         <v>2021</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E151" t="n">
         <v>18</v>
@@ -7329,13 +8368,13 @@
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="K151" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L151" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M151" t="n">
         <v>33</v>
@@ -7358,7 +8397,9 @@
       <c r="S151" t="n">
         <v>11.7</v>
       </c>
-      <c r="T151"/>
+      <c r="T151" t="n">
+        <v>1</v>
+      </c>
       <c r="U151" t="n">
         <v>56.3</v>
       </c>
@@ -7368,13 +8409,13 @@
         <v>21</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C152" t="n">
         <v>2021</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E152" t="n">
         <v>18</v>
@@ -7389,10 +8430,10 @@
       <c r="I152"/>
       <c r="J152"/>
       <c r="K152" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L152" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M152"/>
       <c r="N152"/>
@@ -7415,13 +8456,13 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C153" t="n">
         <v>2021</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E153" t="n">
         <v>18</v>
@@ -7436,10 +8477,10 @@
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L153" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M153"/>
       <c r="N153"/>
@@ -7460,13 +8501,13 @@
         <v>21</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C154" t="n">
         <v>2021</v>
       </c>
       <c r="D154" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E154" t="n">
         <v>19</v>
@@ -7480,13 +8521,13 @@
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K154" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L154" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M154" t="n">
         <v>34</v>
@@ -7509,7 +8550,9 @@
       <c r="S154" t="n">
         <v>14.6</v>
       </c>
-      <c r="T154"/>
+      <c r="T154" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U154" t="n">
         <v>57.3</v>
       </c>
@@ -7519,13 +8562,13 @@
         <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C155" t="n">
         <v>2021</v>
       </c>
       <c r="D155" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E155" t="n">
         <v>19</v>
@@ -7539,13 +8582,13 @@
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="K155" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L155" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M155" t="n">
         <v>33</v>
@@ -7568,7 +8611,9 @@
       <c r="S155" t="n">
         <v>13</v>
       </c>
-      <c r="T155"/>
+      <c r="T155" t="n">
+        <v>1</v>
+      </c>
       <c r="U155" t="n">
         <v>58.1</v>
       </c>
@@ -7578,13 +8623,13 @@
         <v>21</v>
       </c>
       <c r="B156" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C156" t="n">
         <v>2021</v>
       </c>
       <c r="D156" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E156" t="n">
         <v>19</v>
@@ -7599,10 +8644,10 @@
       <c r="I156"/>
       <c r="J156"/>
       <c r="K156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L156" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M156"/>
       <c r="N156"/>
@@ -7625,13 +8670,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C157" t="n">
         <v>2021</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E157" t="n">
         <v>19</v>
@@ -7646,10 +8691,10 @@
       <c r="I157"/>
       <c r="J157"/>
       <c r="K157" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L157" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M157"/>
       <c r="N157"/>
@@ -7670,13 +8715,13 @@
         <v>21</v>
       </c>
       <c r="B158" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C158" t="n">
         <v>2021</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E158" t="n">
         <v>20</v>
@@ -7690,13 +8735,13 @@
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K158" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L158" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M158" t="n">
         <v>35</v>
@@ -7719,7 +8764,9 @@
       <c r="S158" t="n">
         <v>13.5</v>
       </c>
-      <c r="T158"/>
+      <c r="T158" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U158" t="n">
         <v>57.4</v>
       </c>
@@ -7729,13 +8776,13 @@
         <v>21</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C159" t="n">
         <v>2021</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E159" t="n">
         <v>20</v>
@@ -7749,13 +8796,13 @@
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="K159" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L159" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M159" t="n">
         <v>36</v>
@@ -7778,7 +8825,9 @@
       <c r="S159" t="n">
         <v>13.1</v>
       </c>
-      <c r="T159"/>
+      <c r="T159" t="n">
+        <v>1</v>
+      </c>
       <c r="U159" t="n">
         <v>56.7</v>
       </c>
@@ -7788,13 +8837,13 @@
         <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C160" t="n">
         <v>2021</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E160" t="n">
         <v>20</v>
@@ -7809,10 +8858,10 @@
       <c r="I160"/>
       <c r="J160"/>
       <c r="K160" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L160" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M160"/>
       <c r="N160"/>
@@ -7835,13 +8884,13 @@
         <v>21</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C161" t="n">
         <v>2021</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E161" t="n">
         <v>20</v>
@@ -7856,10 +8905,10 @@
       <c r="I161"/>
       <c r="J161"/>
       <c r="K161" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L161" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M161"/>
       <c r="N161"/>

--- a/exports/yield_files/Jay Test 1.xlsx
+++ b/exports/yield_files/Jay Test 1.xlsx
@@ -603,9 +603,15 @@
       <c r="N2" t="n">
         <v>2.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="P2" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>65.84</v>
+      </c>
       <c r="R2" t="n">
         <v>2876.1</v>
       </c>
@@ -658,9 +664,15 @@
       <c r="N3" t="n">
         <v>2</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>21.64</v>
+      </c>
+      <c r="P3" t="n">
+        <v>44.82</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>66.46</v>
+      </c>
       <c r="R3" t="n">
         <v>2491.3</v>
       </c>
@@ -807,9 +819,15 @@
       <c r="N6" t="n">
         <v>2.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>64.94</v>
+      </c>
       <c r="R6" t="n">
         <v>2660.7</v>
       </c>
@@ -862,9 +880,15 @@
       <c r="N7" t="n">
         <v>2</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>64.08</v>
+      </c>
       <c r="R7" t="n">
         <v>2531.7</v>
       </c>
@@ -1011,9 +1035,15 @@
       <c r="N10" t="n">
         <v>2.5</v>
       </c>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="P10" t="n">
+        <v>41.22</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>63.25</v>
+      </c>
       <c r="R10" t="n">
         <v>2381.8</v>
       </c>
@@ -1066,9 +1096,15 @@
       <c r="N11" t="n">
         <v>3</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43.04</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>64.9</v>
+      </c>
       <c r="R11" t="n">
         <v>2384.1</v>
       </c>
@@ -1215,9 +1251,15 @@
       <c r="N14" t="n">
         <v>2.5</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>20.48</v>
+      </c>
+      <c r="P14" t="n">
+        <v>44.87</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>65.35</v>
+      </c>
       <c r="R14" t="n">
         <v>2513.6</v>
       </c>
@@ -1270,9 +1312,15 @@
       <c r="N15" t="n">
         <v>2.5</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="P15" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>65.76</v>
+      </c>
       <c r="R15" t="n">
         <v>2561.3</v>
       </c>
@@ -1419,9 +1467,15 @@
       <c r="N18" t="n">
         <v>3</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>64.12</v>
+      </c>
       <c r="R18" t="n">
         <v>2548.2</v>
       </c>
@@ -1474,9 +1528,15 @@
       <c r="N19" t="n">
         <v>2.5</v>
       </c>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="P19" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R19" t="n">
         <v>2754.6</v>
       </c>
@@ -1623,9 +1683,15 @@
       <c r="N22" t="n">
         <v>1.5</v>
       </c>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>66.39</v>
+      </c>
       <c r="R22" t="n">
         <v>2620.6</v>
       </c>
@@ -1678,9 +1744,15 @@
       <c r="N23" t="n">
         <v>1.5</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="P23" t="n">
+        <v>45.58</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>67.19</v>
+      </c>
       <c r="R23" t="n">
         <v>2878.6</v>
       </c>
@@ -1827,9 +1899,15 @@
       <c r="N26" t="n">
         <v>2.5</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R26" t="n">
         <v>2359.5</v>
       </c>
@@ -1882,9 +1960,15 @@
       <c r="N27" t="n">
         <v>2.5</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="P27" t="n">
+        <v>42.79</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>66.03</v>
+      </c>
       <c r="R27" t="n">
         <v>2376.5</v>
       </c>
@@ -2031,9 +2115,15 @@
       <c r="N30" t="n">
         <v>1.5</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="P30" t="n">
+        <v>42.46</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>64.94</v>
+      </c>
       <c r="R30" t="n">
         <v>2313.1</v>
       </c>
@@ -2086,9 +2176,15 @@
       <c r="N31" t="n">
         <v>2</v>
       </c>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="P31" t="n">
+        <v>43.19</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>66.04</v>
+      </c>
       <c r="R31" t="n">
         <v>1601.1</v>
       </c>
@@ -2235,9 +2331,15 @@
       <c r="N34" t="n">
         <v>2</v>
       </c>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
+      <c r="O34" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="P34" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>63.54</v>
+      </c>
       <c r="R34" t="n">
         <v>2491.1</v>
       </c>
@@ -2290,9 +2392,15 @@
       <c r="N35" t="n">
         <v>2</v>
       </c>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
+      <c r="O35" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="P35" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>64.05</v>
+      </c>
       <c r="R35" t="n">
         <v>2807.3</v>
       </c>
@@ -2439,9 +2547,15 @@
       <c r="N38" t="n">
         <v>1.5</v>
       </c>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
+      <c r="O38" t="n">
+        <v>21.19</v>
+      </c>
+      <c r="P38" t="n">
+        <v>45.81</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>67</v>
+      </c>
       <c r="R38" t="n">
         <v>2407</v>
       </c>
@@ -2494,9 +2608,15 @@
       <c r="N39" t="n">
         <v>1.5</v>
       </c>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
+      <c r="O39" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="P39" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>68.12</v>
+      </c>
       <c r="R39" t="n">
         <v>2326.5</v>
       </c>
@@ -2643,9 +2763,15 @@
       <c r="N42" t="n">
         <v>2</v>
       </c>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
+      <c r="O42" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="P42" t="n">
+        <v>42.34</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>64.36</v>
+      </c>
       <c r="R42" t="n">
         <v>2848.1</v>
       </c>
@@ -2698,9 +2824,15 @@
       <c r="N43" t="n">
         <v>1.5</v>
       </c>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
+      <c r="O43" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="P43" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>63.4</v>
+      </c>
       <c r="R43" t="n">
         <v>2865.1</v>
       </c>
@@ -2847,9 +2979,15 @@
       <c r="N46" t="n">
         <v>2.5</v>
       </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
+      <c r="O46" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="P46" t="n">
+        <v>45.11</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>66</v>
+      </c>
       <c r="R46" t="n">
         <v>2336.1</v>
       </c>
@@ -2902,9 +3040,15 @@
       <c r="N47" t="n">
         <v>2</v>
       </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="O47" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="P47" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>67.04</v>
+      </c>
       <c r="R47" t="n">
         <v>2711.7</v>
       </c>
@@ -3051,9 +3195,15 @@
       <c r="N50" t="n">
         <v>2</v>
       </c>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
+      <c r="O50" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="P50" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>65.7</v>
+      </c>
       <c r="R50" t="n">
         <v>2661.8</v>
       </c>
@@ -3106,9 +3256,15 @@
       <c r="N51" t="n">
         <v>1.5</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
+      <c r="O51" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="P51" t="n">
+        <v>43.91</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>65.37</v>
+      </c>
       <c r="R51" t="n">
         <v>2900.3</v>
       </c>
@@ -3255,9 +3411,15 @@
       <c r="N54" t="n">
         <v>2.5</v>
       </c>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
+      <c r="O54" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="P54" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>65.78</v>
+      </c>
       <c r="R54" t="n">
         <v>2335.1</v>
       </c>
@@ -3310,9 +3472,15 @@
       <c r="N55" t="n">
         <v>2.5</v>
       </c>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
+      <c r="O55" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="P55" t="n">
+        <v>44.35</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>65.56</v>
+      </c>
       <c r="R55" t="n">
         <v>2591.1</v>
       </c>
@@ -3459,9 +3627,15 @@
       <c r="N58" t="n">
         <v>1.5</v>
       </c>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="O58" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="P58" t="n">
+        <v>44.59</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>66.28</v>
+      </c>
       <c r="R58" t="n">
         <v>2861.4</v>
       </c>
@@ -3514,9 +3688,15 @@
       <c r="N59" t="n">
         <v>1.5</v>
       </c>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="O59" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="P59" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>66.89</v>
+      </c>
       <c r="R59" t="n">
         <v>2820.4</v>
       </c>
@@ -3663,9 +3843,15 @@
       <c r="N62" t="n">
         <v>1.5</v>
       </c>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
+      <c r="O62" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="P62" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>62.07</v>
+      </c>
       <c r="R62" t="n">
         <v>2666.7</v>
       </c>
@@ -3718,9 +3904,15 @@
       <c r="N63" t="n">
         <v>1.5</v>
       </c>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
+      <c r="O63" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="P63" t="n">
+        <v>39.17</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>61.61</v>
+      </c>
       <c r="R63" t="n">
         <v>2898.4</v>
       </c>
@@ -3867,9 +4059,15 @@
       <c r="N66" t="n">
         <v>2</v>
       </c>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
+      <c r="O66" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="P66" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>62.19</v>
+      </c>
       <c r="R66" t="n">
         <v>2835.3</v>
       </c>
@@ -3922,9 +4120,15 @@
       <c r="N67" t="n">
         <v>2</v>
       </c>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
+      <c r="O67" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="P67" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>61.67</v>
+      </c>
       <c r="R67" t="n">
         <v>2670.2</v>
       </c>
@@ -4071,9 +4275,15 @@
       <c r="N70" t="n">
         <v>2.5</v>
       </c>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
+      <c r="O70" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="P70" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>63.09</v>
+      </c>
       <c r="R70" t="n">
         <v>2259.8</v>
       </c>
@@ -4126,9 +4336,15 @@
       <c r="N71" t="n">
         <v>2</v>
       </c>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
+      <c r="O71" t="n">
+        <v>24.51</v>
+      </c>
+      <c r="P71" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>62.88</v>
+      </c>
       <c r="R71" t="n">
         <v>2285.4</v>
       </c>
@@ -4275,9 +4491,15 @@
       <c r="N74" t="n">
         <v>2</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+      <c r="O74" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="P74" t="n">
+        <v>49.13</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>68.44</v>
+      </c>
       <c r="R74" t="n">
         <v>2058.9</v>
       </c>
@@ -4330,9 +4552,15 @@
       <c r="N75" t="n">
         <v>2.5</v>
       </c>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
+      <c r="O75" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>69.84</v>
+      </c>
       <c r="R75" t="n">
         <v>2423.1</v>
       </c>
@@ -4479,9 +4707,15 @@
       <c r="N78" t="n">
         <v>1.5</v>
       </c>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
+      <c r="O78" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="P78" t="n">
+        <v>44.78</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>65.63</v>
+      </c>
       <c r="R78" t="n">
         <v>2179.2</v>
       </c>
@@ -4534,9 +4768,15 @@
       <c r="N79" t="n">
         <v>1.5</v>
       </c>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
+      <c r="O79" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="P79" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>64.94</v>
+      </c>
       <c r="R79" t="n">
         <v>1996.1</v>
       </c>
